--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Partition Array Such That Maximum Difference Is K</t>
+  </si>
+  <si>
+    <t>Maximum Manhattan Distance After K Changes</t>
+  </si>
+  <si>
+    <t>math, string, counting</t>
   </si>
 </sst>
 </file>
@@ -1228,13 +1234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="23.4326923076923" style="2" customWidth="1"/>
@@ -1363,6 +1369,35 @@
         <v>45827</v>
       </c>
     </row>
+    <row r="5" ht="51" spans="1:9">
+      <c r="A5" s="1">
+        <v>3443</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45828</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45828</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>math, string, counting</t>
+  </si>
+  <si>
+    <t>Minimum Deletions to Make String K-Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #string #greedy #sorting #counting </t>
   </si>
 </sst>
 </file>
@@ -1234,13 +1240,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="23.4326923076923" style="2" customWidth="1"/>
@@ -1398,6 +1404,35 @@
         <v>45828</v>
       </c>
     </row>
+    <row r="6" ht="51" spans="1:9">
+      <c r="A6" s="1">
+        <v>3085</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45829</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45829</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14520"/>
+    <workbookView windowWidth="26860" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">#hash-table #string #greedy #sorting #counting </t>
+  </si>
+  <si>
+    <t>Sum of k-Mirror Numbers</t>
+  </si>
+  <si>
+    <t>#math #enumeration</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
 </sst>
 </file>
@@ -1240,13 +1249,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="23.4326923076923" style="2" customWidth="1"/>
@@ -1433,6 +1442,35 @@
         <v>45829</v>
       </c>
     </row>
+    <row r="7" ht="34" spans="1:9">
+      <c r="A7" s="1">
+        <v>2081</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45831</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -92,10 +92,16 @@
     <t>Sum of k-Mirror Numbers</t>
   </si>
   <si>
-    <t>#math #enumeration</t>
+    <t>#math #enumeration #binary-search</t>
   </si>
   <si>
     <t>hard</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>#binary-search</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1255,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="23.4326923076923" style="2" customWidth="1"/>
@@ -1263,7 +1269,7 @@
     <col min="4" max="4" width="9.23076923076923" style="1"/>
     <col min="5" max="5" width="11.0288461538462" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.23076923076923" style="1"/>
-    <col min="8" max="8" width="10.9230769230769" style="1"/>
+    <col min="8" max="8" width="12.0769230769231" style="1"/>
     <col min="9" max="9" width="14.0576923076923" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.23076923076923" style="1"/>
   </cols>
@@ -1442,7 +1448,7 @@
         <v>45829</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:9">
+    <row r="7" ht="51" spans="1:9">
       <c r="A7" s="1">
         <v>2081</v>
       </c>
@@ -1468,6 +1474,35 @@
         <v>45831</v>
       </c>
       <c r="I7" s="3">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:9">
+      <c r="A8" s="1">
+        <v>704</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44339</v>
+      </c>
+      <c r="I8" s="3">
         <v>45831</v>
       </c>
     </row>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -101,7 +101,13 @@
     <t>Binary Search</t>
   </si>
   <si>
-    <t>#binary-search</t>
+    <t>#binary-search #必背</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #array  #binary-search #核心 </t>
   </si>
 </sst>
 </file>
@@ -1255,13 +1261,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
     <col min="2" max="2" width="23.4326923076923" style="2" customWidth="1"/>
@@ -1477,7 +1483,7 @@
         <v>45831</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:9">
+    <row r="8" ht="34" spans="1:9">
       <c r="A8" s="1">
         <v>704</v>
       </c>
@@ -1503,6 +1509,35 @@
         <v>44339</v>
       </c>
       <c r="I8" s="3">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:9">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44339</v>
+      </c>
+      <c r="I9" s="3">
         <v>45831</v>
       </c>
     </row>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t xml:space="preserve"> #array  #binary-search #核心 </t>
+  </si>
+  <si>
+    <t>Find All K-Distant Indices in an Array</t>
+  </si>
+  <si>
+    <t>#array #two-pointers</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array  #binary-search #重点 </t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1541,6 +1553,64 @@
         <v>45831</v>
       </c>
     </row>
+    <row r="10" ht="34" spans="1:9">
+      <c r="A10" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="11" ht="34" spans="1:9">
+      <c r="A11" s="1">
+        <v>153</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45832</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array  #binary-search #重点 </t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>#binary-search #重点</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1611,6 +1620,64 @@
         <v>45832</v>
       </c>
     </row>
+    <row r="12" ht="34" spans="1:9">
+      <c r="A12" s="1">
+        <v>154</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="13" ht="34" spans="1:9">
+      <c r="A13" s="1">
+        <v>278</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45832</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>#binary-search #重点</t>
+  </si>
+  <si>
+    <t>Kth Smallest Product of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search </t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1678,6 +1684,35 @@
         <v>45832</v>
       </c>
     </row>
+    <row r="14" ht="34" spans="1:9">
+      <c r="A14" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45833</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45833</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #binary-search </t>
+  </si>
+  <si>
+    <t>Longest Binary Subsequence Less Than or Equal to K</t>
+  </si>
+  <si>
+    <t>#string #dp #greedy #memoization</t>
   </si>
 </sst>
 </file>
@@ -1288,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1713,6 +1719,35 @@
         <v>45833</v>
       </c>
     </row>
+    <row r="15" ht="51" spans="1:9">
+      <c r="A15" s="1">
+        <v>2311</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45834</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>#string #dp #greedy #memoization</t>
+  </si>
+  <si>
+    <t>Longest Subsequence Repeated k Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #backtracking #greedy #enumeration </t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1748,6 +1754,35 @@
         <v>45834</v>
       </c>
     </row>
+    <row r="16" ht="68" spans="1:9">
+      <c r="A16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45835</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45835</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>#binary-search #重点</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>#array #binary-search #重点</t>
   </si>
   <si>
     <t>Kth Smallest Product of Two Sorted Arrays</t>
@@ -1300,10 +1306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1698,7 +1704,7 @@
     </row>
     <row r="14" ht="34" spans="1:9">
       <c r="A14" s="1">
-        <v>2040</v>
+        <v>658</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
@@ -1707,27 +1713,27 @@
         <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="I14" s="3">
-        <v>45833</v>
+        <v>45832</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="1:9">
+    <row r="15" ht="34" spans="1:9">
       <c r="A15" s="1">
-        <v>2311</v>
+        <v>2040</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -1736,27 +1742,27 @@
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
       <c r="G15" s="1">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="I15" s="3">
-        <v>45834</v>
+        <v>45833</v>
       </c>
     </row>
-    <row r="16" ht="68" spans="1:9">
+    <row r="16" ht="51" spans="1:9">
       <c r="A16" s="1">
-        <v>2014</v>
+        <v>2311</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>38</v>
@@ -1765,22 +1771,59 @@
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:9">
+      <c r="A17" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>56</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>45835</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>45835</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:2">
+      <c r="A18" s="1">
+        <v>658</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">#string #backtracking #greedy #enumeration </t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #必背 </t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1571,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1583,7 +1589,7 @@
         <v>44339</v>
       </c>
       <c r="I9" s="3">
-        <v>45831</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="10" ht="34" spans="1:9">
@@ -1818,12 +1824,33 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="18" ht="17" spans="1:2">
+    <row r="18" ht="34" spans="1:9">
       <c r="A18" s="1">
-        <v>658</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45835</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45835</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #binary-search #必背 </t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array  #binary-search #必背 </t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1853,6 +1859,35 @@
         <v>45835</v>
       </c>
     </row>
+    <row r="19" ht="34" spans="1:9">
+      <c r="A19" s="1">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45835</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45835</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array  #binary-search #必背 </t>
+  </si>
+  <si>
+    <t>Find Subsequence of Length K With the Largest Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #hash-table #sorting #heap </t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1888,6 +1894,35 @@
         <v>45835</v>
       </c>
     </row>
+    <row r="20" ht="51" spans="1:9">
+      <c r="A20" s="1">
+        <v>2099</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45836</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45836</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #hash-table #sorting #heap </t>
+  </si>
+  <si>
+    <t>Longest Harmonious Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #hash-table #sliding-window #sorting  #counting </t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1923,6 +1929,39 @@
         <v>45836</v>
       </c>
     </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" ht="68" spans="1:9">
+      <c r="A22" s="1">
+        <v>594</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -173,10 +173,22 @@
     <t xml:space="preserve">#array #hash-table #sorting #heap </t>
   </si>
   <si>
+    <t>Number of Subsequences That Satisfy the Given Sum Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #binary-search #sorting </t>
+  </si>
+  <si>
     <t>Longest Harmonious Subsequence</t>
   </si>
   <si>
     <t xml:space="preserve">#array #hash-table #sliding-window #sorting  #counting </t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #divide-and-conquer #核心 </t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1929,19 +1941,44 @@
         <v>45836</v>
       </c>
     </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+    <row r="21" ht="51" spans="1:9">
+      <c r="A21" s="1">
+        <v>1498</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45837</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45837</v>
+      </c>
     </row>
     <row r="22" ht="68" spans="1:9">
       <c r="A22" s="1">
         <v>594</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1959,6 +1996,35 @@
         <v>45838</v>
       </c>
       <c r="I22" s="3">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="23" ht="51" spans="1:9">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>18</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I23" s="3">
         <v>45838</v>
       </c>
     </row>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t xml:space="preserve">#array #binary-search #divide-and-conquer #核心 </t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array  #binary-search #matrix #核心 </t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #核心 </t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2028,6 +2040,64 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="24" ht="51" spans="1:9">
+      <c r="A24" s="1">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="25" ht="34" spans="1:9">
+      <c r="A25" s="1">
+        <v>162</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #binary-search #核心 </t>
+  </si>
+  <si>
+    <t>Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #重点 </t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1360,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2098,6 +2104,35 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="26" ht="34" spans="1:9">
+      <c r="A26" s="1">
+        <v>852</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #binary-search #重点 </t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #array #binary-search #必背 </t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2133,6 +2139,35 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="27" ht="51" spans="1:9">
+      <c r="A27" s="1">
+        <v>875</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -212,7 +212,10 @@
     <t>Koko Eating Bananas</t>
   </si>
   <si>
-    <t xml:space="preserve">#two-pointers #array #binary-search #必背 </t>
+    <t xml:space="preserve">#two-pointers #array #binary-search #核心 </t>
+  </si>
+  <si>
+    <t>Find the Smallest Divisor Given a Threshold</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2168,6 +2171,35 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="28" ht="51" spans="1:9">
+      <c r="A28" s="1">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Find the Smallest Divisor Given a Threshold</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #binary-search #重点 </t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2200,6 +2206,35 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="29" ht="34" spans="1:9">
+      <c r="A29" s="1">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -222,6 +222,30 @@
   </si>
   <si>
     <t xml:space="preserve">#math #binary-search #重点 </t>
+  </si>
+  <si>
+    <t>Maximum 69 Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #greedy </t>
+  </si>
+  <si>
+    <t>Sort an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #divide-and-conquer #sorting #heap </t>
+  </si>
+  <si>
+    <t>Find the Original Typed String I</t>
+  </si>
+  <si>
+    <t>#string</t>
+  </si>
+  <si>
+    <t>Largest BST Subtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #tree #dfs #bst #binary-tree </t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2235,6 +2259,122 @@
         <v>45838</v>
       </c>
     </row>
+    <row r="30" ht="17" spans="1:9">
+      <c r="A30" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="31" ht="51" spans="1:9">
+      <c r="A31" s="1">
+        <v>912</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>18</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45838</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="32" ht="34" spans="1:9">
+      <c r="A32" s="1">
+        <v>3330</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>16</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="33" ht="68" spans="1:9">
+      <c r="A33" s="1">
+        <v>333</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>53</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45839</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -246,6 +246,36 @@
   </si>
   <si>
     <t xml:space="preserve">#dynamic-programming #tree #dfs #bst #binary-tree </t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #bfs #dfs #matrix #重点 </t>
+  </si>
+  <si>
+    <t>Search in a Sorted Array of Unknown Size</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array  #two-pointers #sorting #必背 </t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #核心 </t>
+  </si>
+  <si>
+    <t>Find the Original Typed String II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #dynamic-programming  #prefix-sum </t>
+  </si>
+  <si>
+    <t>？？dp 难！</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1415,7 +1445,8 @@
     <col min="6" max="7" width="9.23076923076923" style="1"/>
     <col min="8" max="8" width="12.0769230769231" style="1"/>
     <col min="9" max="9" width="14.0576923076923" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.23076923076923" style="1"/>
+    <col min="10" max="10" width="23.2115384615385" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:9">
@@ -2375,11 +2406,160 @@
         <v>45839</v>
       </c>
     </row>
+    <row r="34" ht="51" spans="1:9">
+      <c r="A34" s="1">
+        <v>302</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>38</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="35" ht="34" spans="1:9">
+      <c r="A35" s="1">
+        <v>702</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="36" ht="51" spans="1:9">
+      <c r="A36" s="1">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="37" ht="34" spans="1:9">
+      <c r="A37" s="1">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45839</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="38" ht="51" spans="1:10">
+      <c r="A38" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45840</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45840</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I4">
     <sortCondition ref="I2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>？？dp 难！</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #sorting #核心 </t>
   </si>
 </sst>
 </file>
@@ -891,17 +900,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1449,7 +1461,7 @@
     <col min="11" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1500,14 +1512,14 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>44197</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>45826</v>
       </c>
     </row>
-    <row r="3" ht="53" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="1:9">
       <c r="A3" s="1">
         <v>2966</v>
       </c>
@@ -1529,14 +1541,14 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>45826</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>45826</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A4" s="1">
         <v>2294</v>
       </c>
@@ -1558,14 +1570,14 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>45827</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>45827</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A5" s="1">
         <v>3443</v>
       </c>
@@ -1587,14 +1599,14 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>45828</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>45828</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A6" s="1">
         <v>3085</v>
       </c>
@@ -1616,14 +1628,14 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>45829</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>45829</v>
       </c>
     </row>
-    <row r="7" ht="51" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A7" s="1">
         <v>2081</v>
       </c>
@@ -1645,14 +1657,14 @@
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>45831</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>45831</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A8" s="1">
         <v>704</v>
       </c>
@@ -1674,14 +1686,14 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>44339</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>45831</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:9">
+    <row r="9" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -1703,14 +1715,14 @@
       <c r="G9" s="1">
         <v>34</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>44339</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>45835</v>
       </c>
     </row>
-    <row r="10" ht="34" spans="1:9">
+    <row r="10" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A10" s="1">
         <v>2200</v>
       </c>
@@ -1732,14 +1744,14 @@
       <c r="G10" s="1">
         <v>33</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>45832</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>45832</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="1:9">
+    <row r="11" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A11" s="1">
         <v>153</v>
       </c>
@@ -1761,14 +1773,14 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>45832</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>45832</v>
       </c>
     </row>
-    <row r="12" ht="34" spans="1:9">
+    <row r="12" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A12" s="1">
         <v>154</v>
       </c>
@@ -1790,14 +1802,14 @@
       <c r="G12" s="1">
         <v>21</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>45832</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>45832</v>
       </c>
     </row>
-    <row r="13" ht="34" spans="1:9">
+    <row r="13" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A13" s="1">
         <v>278</v>
       </c>
@@ -1819,14 +1831,14 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>45832</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>45832</v>
       </c>
     </row>
-    <row r="14" ht="34" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A14" s="1">
         <v>658</v>
       </c>
@@ -1848,14 +1860,14 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>45832</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>45832</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A15" s="1">
         <v>2040</v>
       </c>
@@ -1877,14 +1889,14 @@
       <c r="G15" s="1">
         <v>60</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>45833</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>45833</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A16" s="1">
         <v>2311</v>
       </c>
@@ -1906,14 +1918,14 @@
       <c r="G16" s="1">
         <v>13</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>45834</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>45834</v>
       </c>
     </row>
-    <row r="17" ht="68" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="68" spans="1:9">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -1935,14 +1947,14 @@
       <c r="G17" s="1">
         <v>56</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>45835</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>45835</v>
       </c>
     </row>
-    <row r="18" ht="34" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -1964,14 +1976,14 @@
       <c r="G18" s="1">
         <v>25</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>45835</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>45835</v>
       </c>
     </row>
-    <row r="19" ht="34" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A19" s="1">
         <v>81</v>
       </c>
@@ -1993,14 +2005,14 @@
       <c r="G19" s="1">
         <v>22</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>45835</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>45835</v>
       </c>
     </row>
-    <row r="20" ht="51" spans="1:9">
+    <row r="20" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A20" s="1">
         <v>2099</v>
       </c>
@@ -2022,14 +2034,14 @@
       <c r="G20" s="1">
         <v>13</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>45836</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>45836</v>
       </c>
     </row>
-    <row r="21" ht="51" spans="1:9">
+    <row r="21" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A21" s="1">
         <v>1498</v>
       </c>
@@ -2051,14 +2063,14 @@
       <c r="G21" s="1">
         <v>18</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>45837</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>45837</v>
       </c>
     </row>
-    <row r="22" ht="68" spans="1:9">
+    <row r="22" s="1" customFormat="1" ht="68" spans="1:9">
       <c r="A22" s="1">
         <v>594</v>
       </c>
@@ -2080,14 +2092,14 @@
       <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>45838</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="23" ht="51" spans="1:9">
+    <row r="23" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -2109,14 +2121,14 @@
       <c r="G23" s="1">
         <v>18</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <v>45838</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:9">
+    <row r="24" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A24" s="1">
         <v>74</v>
       </c>
@@ -2138,14 +2150,14 @@
       <c r="G24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>45838</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="25" ht="34" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A25" s="1">
         <v>162</v>
       </c>
@@ -2167,14 +2179,14 @@
       <c r="G25" s="1">
         <v>18</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>45838</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="26" ht="34" spans="1:9">
+    <row r="26" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A26" s="1">
         <v>852</v>
       </c>
@@ -2196,14 +2208,14 @@
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="4">
         <v>45838</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="27" ht="51" spans="1:9">
+    <row r="27" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A27" s="1">
         <v>875</v>
       </c>
@@ -2225,14 +2237,14 @@
       <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>45838</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:9">
+    <row r="28" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A28" s="1">
         <v>1283</v>
       </c>
@@ -2254,14 +2266,14 @@
       <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="4">
         <v>45838</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="29" ht="34" spans="1:9">
+    <row r="29" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A29" s="1">
         <v>69</v>
       </c>
@@ -2283,14 +2295,14 @@
       <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4">
         <v>45838</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:9">
+    <row r="30" s="1" customFormat="1" ht="17" spans="1:9">
       <c r="A30" s="1">
         <v>1323</v>
       </c>
@@ -2312,14 +2324,14 @@
       <c r="G30" s="1">
         <v>9</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4">
         <v>45838</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="31" ht="51" spans="1:9">
+    <row r="31" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A31" s="1">
         <v>912</v>
       </c>
@@ -2341,14 +2353,14 @@
       <c r="G31" s="1">
         <v>18</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4">
         <v>45838</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <v>45838</v>
       </c>
     </row>
-    <row r="32" ht="34" spans="1:9">
+    <row r="32" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A32" s="1">
         <v>3330</v>
       </c>
@@ -2370,14 +2382,14 @@
       <c r="G32" s="1">
         <v>16</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <v>45839</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="33" ht="68" spans="1:9">
+    <row r="33" s="1" customFormat="1" ht="68" spans="1:9">
       <c r="A33" s="1">
         <v>333</v>
       </c>
@@ -2399,14 +2411,14 @@
       <c r="G33" s="1">
         <v>53</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <v>45839</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="34" ht="51" spans="1:9">
+    <row r="34" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A34" s="1">
         <v>302</v>
       </c>
@@ -2428,18 +2440,18 @@
       <c r="G34" s="1">
         <v>38</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <v>45839</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="35" ht="34" spans="1:9">
+    <row r="35" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A35" s="1">
         <v>702</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2457,14 +2469,14 @@
       <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4">
         <v>45839</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="36" ht="51" spans="1:9">
+    <row r="36" s="1" customFormat="1" ht="51" spans="1:9">
       <c r="A36" s="1">
         <v>75</v>
       </c>
@@ -2486,14 +2498,14 @@
       <c r="G36" s="1">
         <v>6</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4">
         <v>45839</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="37" ht="34" spans="1:9">
+    <row r="37" s="1" customFormat="1" ht="34" spans="1:9">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -2515,14 +2527,14 @@
       <c r="G37" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="4">
         <v>45839</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>45839</v>
       </c>
     </row>
-    <row r="38" ht="51" spans="1:10">
+    <row r="38" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A38" s="1">
         <v>3333</v>
       </c>
@@ -2544,22 +2556,76 @@
       <c r="G38" s="1">
         <v>40</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4">
         <v>45840</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <v>45840</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="39" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="A39" s="1">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4">
+        <v>45840</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="40" ht="51" spans="1:9">
+      <c r="A40" s="1">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>15</v>
+      </c>
+      <c r="H40" s="4">
+        <v>45840</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45840</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:I4">
-    <sortCondition ref="I2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -65,6 +65,9 @@
     <t>easy</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Divide Array Into Arrays With Max Difference</t>
   </si>
   <si>
@@ -285,6 +288,30 @@
   </si>
   <si>
     <t xml:space="preserve">#array #two-pointers #sorting #核心 </t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#heap #divide-and-conquer  #quickselect #array #核心 </t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #divide-and-conquer #quickselect #核心 </t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>Find the K-th Character in String Game</t>
+  </si>
+  <si>
+    <t>#math #bit-minipulation #recursive #simulation</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1490,7 +1517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1518,19 +1545,22 @@
       <c r="I2" s="4">
         <v>45826</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="1:10">
       <c r="A3" s="1">
         <v>2966</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1547,19 +1577,22 @@
       <c r="I3" s="4">
         <v>45826</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A4" s="1">
         <v>2294</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1576,19 +1609,22 @@
       <c r="I4" s="4">
         <v>45827</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A5" s="1">
         <v>3443</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1605,19 +1641,22 @@
       <c r="I5" s="4">
         <v>45828</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A6" s="1">
         <v>3085</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1634,19 +1673,22 @@
       <c r="I6" s="4">
         <v>45829</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A7" s="1">
         <v>2081</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1663,16 +1705,19 @@
       <c r="I7" s="4">
         <v>45831</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A8" s="1">
         <v>704</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1692,19 +1737,22 @@
       <c r="I8" s="4">
         <v>45831</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A9" s="1">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1721,16 +1769,19 @@
       <c r="I9" s="4">
         <v>45835</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A10" s="1">
         <v>2200</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1749,6 +1800,9 @@
       </c>
       <c r="I10" s="4">
         <v>45832</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="34" spans="1:9">
@@ -1756,13 +1810,13 @@
         <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -1780,18 +1834,18 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="12" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A12" s="1">
         <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1807,6 +1861,9 @@
       </c>
       <c r="I12" s="4">
         <v>45832</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="34" spans="1:9">
@@ -1814,10 +1871,10 @@
         <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1838,18 +1895,18 @@
         <v>45832</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A14" s="1">
         <v>658</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1866,19 +1923,22 @@
       <c r="I14" s="4">
         <v>45832</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A15" s="1">
         <v>2040</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1894,6 +1954,9 @@
       </c>
       <c r="I15" s="4">
         <v>45833</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="51" spans="1:9">
@@ -1901,13 +1964,13 @@
         <v>2311</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1925,18 +1988,18 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="68" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="68" spans="1:10">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1953,19 +2016,22 @@
       <c r="I17" s="4">
         <v>45835</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A18" s="1">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -1981,6 +2047,9 @@
       </c>
       <c r="I18" s="4">
         <v>45835</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="34" spans="1:9">
@@ -1988,13 +2057,13 @@
         <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -2017,10 +2086,10 @@
         <v>2099</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -2041,18 +2110,18 @@
         <v>45836</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="51" spans="1:9">
+    <row r="21" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A21" s="1">
         <v>1498</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2068,6 +2137,9 @@
       </c>
       <c r="I21" s="4">
         <v>45837</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="68" spans="1:9">
@@ -2075,10 +2147,10 @@
         <v>594</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2099,18 +2171,18 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="51" spans="1:9">
+    <row r="23" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2127,19 +2199,22 @@
       <c r="I23" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2155,6 +2230,9 @@
       </c>
       <c r="I24" s="4">
         <v>45838</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="34" spans="1:9">
@@ -2162,13 +2240,13 @@
         <v>162</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2191,13 +2269,13 @@
         <v>852</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -2220,13 +2298,13 @@
         <v>875</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -2249,13 +2327,13 @@
         <v>1283</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -2278,10 +2356,10 @@
         <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -2307,10 +2385,10 @@
         <v>1323</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -2331,18 +2409,18 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="51" spans="1:9">
+    <row r="31" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A31" s="1">
         <v>912</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -2358,6 +2436,9 @@
       </c>
       <c r="I31" s="4">
         <v>45838</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="34" spans="1:9">
@@ -2365,10 +2446,10 @@
         <v>3330</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -2389,18 +2470,18 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="68" spans="1:9">
+    <row r="33" s="1" customFormat="1" ht="68" spans="1:10">
       <c r="A33" s="1">
         <v>333</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2417,19 +2498,22 @@
       <c r="I33" s="4">
         <v>45839</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A34" s="1">
         <v>302</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2446,19 +2530,22 @@
       <c r="I34" s="4">
         <v>45839</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A35" s="1">
         <v>702</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -2474,6 +2561,9 @@
       </c>
       <c r="I35" s="4">
         <v>45839</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="51" spans="1:9">
@@ -2481,13 +2571,13 @@
         <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2510,10 +2600,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -2539,13 +2629,13 @@
         <v>3333</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2563,7 +2653,7 @@
         <v>45840</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="34" spans="1:9">
@@ -2571,13 +2661,13 @@
         <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2600,10 +2690,10 @@
         <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -2622,6 +2712,128 @@
       </c>
       <c r="I40" s="4">
         <v>45840</v>
+      </c>
+    </row>
+    <row r="41" ht="34" spans="1:9">
+      <c r="A41" s="1">
+        <v>283</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4">
+        <v>45840</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="42" ht="68" spans="1:10">
+      <c r="A42" s="1">
+        <v>215</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>16</v>
+      </c>
+      <c r="H42" s="4">
+        <v>45840</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45840</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="51" spans="1:10">
+      <c r="A43" s="1">
+        <v>347</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4">
+        <v>45840</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45840</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" ht="68" spans="1:9">
+      <c r="A44" s="1">
+        <v>3304</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>20</v>
+      </c>
+      <c r="H44" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I44" s="4">
+        <v>45841</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -312,6 +312,21 @@
   </si>
   <si>
     <t>#math #bit-minipulation #recursive #simulation</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #array #two-pointers #核心 </t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>Longest Mountain in Array</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
   </si>
 </sst>
 </file>
@@ -1468,10 +1483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2807,7 +2822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" ht="68" spans="1:9">
+    <row r="44" ht="68" spans="1:10">
       <c r="A44" s="1">
         <v>3304</v>
       </c>
@@ -2834,6 +2849,128 @@
       </c>
       <c r="I44" s="4">
         <v>45841</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="51" spans="1:9">
+      <c r="A45" s="1">
+        <v>349</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="46" ht="51" spans="1:9">
+      <c r="A46" s="1">
+        <v>350</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="47" ht="34" spans="1:9">
+      <c r="A47" s="1">
+        <v>845</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>20</v>
+      </c>
+      <c r="H47" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="48" ht="34" spans="1:10">
+      <c r="A48" s="1">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20</v>
+      </c>
+      <c r="H48" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45841</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #string #simulation #核心 </t>
+  </si>
+  <si>
+    <t>Pancake Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #greedy #sorting #重点 </t>
+  </si>
+  <si>
+    <t>Find the K-th Character in String Game II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #bit-minipulation </t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2973,6 +2991,99 @@
         <v>12</v>
       </c>
     </row>
+    <row r="49" ht="34" spans="1:10">
+      <c r="A49" s="1">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>30</v>
+      </c>
+      <c r="H49" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I49" s="4">
+        <v>45841</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="51" spans="1:10">
+      <c r="A50" s="1">
+        <v>969</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>25</v>
+      </c>
+      <c r="H50" s="4">
+        <v>45841</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45841</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="34" spans="1:9">
+      <c r="A51" s="1">
+        <v>3307</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>24</v>
+      </c>
+      <c r="H51" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I51" s="4">
+        <v>45842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t xml:space="preserve">#math #bit-minipulation </t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#linked-list #必背 </t>
+  </si>
+  <si>
+    <t>New 21 Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #sliding-window </t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#linked-list #two-pointers #核心 </t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3084,6 +3102,102 @@
         <v>45842</v>
       </c>
     </row>
+    <row r="52" ht="17" spans="1:10">
+      <c r="A52" s="1">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>20</v>
+      </c>
+      <c r="H52" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I52" s="4">
+        <v>45842</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="51" spans="1:10">
+      <c r="A53" s="1">
+        <v>837</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>50</v>
+      </c>
+      <c r="H53" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I53" s="4">
+        <v>45842</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="34" spans="1:10">
+      <c r="A54" s="1">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>61</v>
+      </c>
+      <c r="H54" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I54" s="4">
+        <v>45842</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -363,6 +363,39 @@
   </si>
   <si>
     <t xml:space="preserve">#linked-list #two-pointers #核心 </t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#linked-list #two-pointers #必背 </t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Find Lucky Integer in an Array</t>
+  </si>
+  <si>
+    <t>Finding Pairs With a Certain Sum</t>
+  </si>
+  <si>
+    <t>#array #hash-table #design</t>
+  </si>
+  <si>
+    <t>Maximum Number of Events That Can Be Attended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #greedy #sorting #heap </t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>#linked-list</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3198,6 +3231,215 @@
         <v>12</v>
       </c>
     </row>
+    <row r="55" ht="34" spans="1:10">
+      <c r="A55" s="1">
+        <v>141</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>20</v>
+      </c>
+      <c r="H55" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I55" s="4">
+        <v>45842</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="34" spans="1:9">
+      <c r="A56" s="1">
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I56" s="4">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="57" ht="34" spans="1:10">
+      <c r="A57" s="1">
+        <v>234</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>20</v>
+      </c>
+      <c r="H57" s="4">
+        <v>45842</v>
+      </c>
+      <c r="I57" s="4">
+        <v>45842</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="34" spans="1:9">
+      <c r="A58" s="1">
+        <v>1394</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4">
+        <v>45843</v>
+      </c>
+      <c r="I58" s="4">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="59" ht="34" spans="1:9">
+      <c r="A59" s="1">
+        <v>1865</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>24</v>
+      </c>
+      <c r="H59" s="4">
+        <v>45844</v>
+      </c>
+      <c r="I59" s="4">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="60" ht="51" spans="1:9">
+      <c r="A60" s="1">
+        <v>1353</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>28</v>
+      </c>
+      <c r="H60" s="4">
+        <v>45845</v>
+      </c>
+      <c r="I60" s="4">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="61" ht="17" spans="1:10">
+      <c r="A61" s="1">
+        <v>328</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20</v>
+      </c>
+      <c r="H61" s="4">
+        <v>45845</v>
+      </c>
+      <c r="I61" s="4">
+        <v>45845</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowWidth="26860" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>#linked-list</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #重点 </t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3440,6 +3446,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="62" ht="34" spans="1:9">
+      <c r="A62" s="1">
+        <v>287</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="H62" s="4">
+        <v>45846</v>
+      </c>
+      <c r="I62" s="4">
+        <v>45846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array #two-pointers #重点 </t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#linked-list #two-pointers #重点 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #sorting #核心 </t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3475,6 +3484,40 @@
         <v>45846</v>
       </c>
     </row>
+    <row r="63" ht="34" spans="1:9">
+      <c r="A63" s="1">
+        <v>876</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>45846</v>
+      </c>
+      <c r="I63" s="4">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="64" ht="34" spans="3:3">
+      <c r="C64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
   <si>
     <t>#</t>
   </si>
@@ -410,7 +410,16 @@
     <t xml:space="preserve">#linked-list #two-pointers #重点 </t>
   </si>
   <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
     <t xml:space="preserve">#array #sorting #核心 </t>
+  </si>
+  <si>
+    <t>Reschedule Meetings for Maximum Free Time I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #greedy #sliding-window </t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3513,9 +3522,65 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="64" ht="34" spans="3:3">
+    <row r="64" ht="34" spans="1:9">
+      <c r="A64" s="1">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C64" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="4">
+        <v>45846</v>
+      </c>
+      <c r="I64" s="4">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="65" ht="34" spans="1:10">
+      <c r="A65" s="1">
+        <v>3439</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45</v>
+      </c>
+      <c r="H65" s="4">
+        <v>45847</v>
+      </c>
+      <c r="I65" s="4">
+        <v>45847</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
   <si>
     <t>#</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #greedy #sliding-window </t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>#array</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1582,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3583,6 +3589,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="66" ht="17" spans="1:9">
+      <c r="A66" s="1">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>50</v>
+      </c>
+      <c r="H66" s="4">
+        <v>45847</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="134">
   <si>
     <t>#</t>
   </si>
@@ -425,7 +425,10 @@
     <t>Insert Interval</t>
   </si>
   <si>
-    <t>#array</t>
+    <t>#array #核心</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66:I66"/>
+      <selection activeCell="H67" sqref="H67:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3618,6 +3621,35 @@
         <v>45847</v>
       </c>
     </row>
+    <row r="67" ht="34" spans="1:9">
+      <c r="A67" s="1">
+        <v>252</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4">
+        <v>45847</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
   <si>
     <t>#</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#greedy #sorting #heap #核心 </t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67:I67"/>
+      <selection activeCell="H68" sqref="H68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3650,6 +3656,35 @@
         <v>45847</v>
       </c>
     </row>
+    <row r="68" ht="34" spans="1:9">
+      <c r="A68" s="1">
+        <v>253</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>18</v>
+      </c>
+      <c r="H68" s="4">
+        <v>45847</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
   <si>
     <t>#</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t xml:space="preserve">#greedy #sorting #heap #核心 </t>
+  </si>
+  <si>
+    <t>Reschedule Meetings for Maximum Free Time II</t>
+  </si>
+  <si>
+    <t>#greedy</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#tree #bst </t>
+  </si>
+  <si>
+    <t>Interval List Intersections</t>
   </si>
 </sst>
 </file>
@@ -1591,10 +1606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:I68"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3685,6 +3700,96 @@
         <v>45847</v>
       </c>
     </row>
+    <row r="69" ht="34" spans="1:9">
+      <c r="A69" s="1">
+        <v>3440</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>18</v>
+      </c>
+      <c r="H69" s="4">
+        <v>45848</v>
+      </c>
+      <c r="I69" s="4">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="70" ht="17" spans="1:10">
+      <c r="A70" s="1">
+        <v>285</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>10</v>
+      </c>
+      <c r="H70" s="4">
+        <v>45848</v>
+      </c>
+      <c r="I70" s="4">
+        <v>45848</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="34" spans="1:9">
+      <c r="A71" s="1">
+        <v>986</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>15</v>
+      </c>
+      <c r="H71" s="4">
+        <v>45848</v>
+      </c>
+      <c r="I71" s="4">
+        <v>45848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Interval List Intersections</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#palindrom #核心 </t>
   </si>
 </sst>
 </file>
@@ -1606,10 +1612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71:I71"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3790,6 +3796,38 @@
         <v>45848</v>
       </c>
     </row>
+    <row r="72" ht="34" spans="1:10">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20</v>
+      </c>
+      <c r="H72" s="4">
+        <v>45848</v>
+      </c>
+      <c r="I72" s="4">
+        <v>45848</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -456,6 +456,21 @@
   </si>
   <si>
     <t xml:space="preserve">#palindrom #核心 </t>
+  </si>
+  <si>
+    <t>Meeting Rooms III</t>
+  </si>
+  <si>
+    <t>#array #hash-table #sorting #heap #simulation</t>
+  </si>
+  <si>
+    <t>? 饿傻了</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>#two-pointers #string #核心</t>
   </si>
 </sst>
 </file>
@@ -1612,10 +1627,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:I72"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3828,6 +3843,67 @@
         <v>12</v>
       </c>
     </row>
+    <row r="73" ht="51" spans="1:10">
+      <c r="A73" s="1">
+        <v>2402</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>50</v>
+      </c>
+      <c r="H73" s="4">
+        <v>45849</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45849</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" ht="34" spans="1:9">
+      <c r="A74" s="1">
+        <v>345</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="4">
+        <v>45849</v>
+      </c>
+      <c r="I74" s="4">
+        <v>45849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="154">
   <si>
     <t>#</t>
   </si>
@@ -471,6 +471,24 @@
   </si>
   <si>
     <t>#two-pointers #string #核心</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #string  #重点 </t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #string #核心 </t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #string #hash-table #sliding-window #必背 </t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3904,6 +3922,93 @@
         <v>45849</v>
       </c>
     </row>
+    <row r="75" ht="34" spans="1:9">
+      <c r="A75" s="1">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5</v>
+      </c>
+      <c r="H75" s="4">
+        <v>45849</v>
+      </c>
+      <c r="I75" s="4">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="76" ht="34" spans="1:9">
+      <c r="A76" s="1">
+        <v>680</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>15</v>
+      </c>
+      <c r="H76" s="4">
+        <v>45849</v>
+      </c>
+      <c r="I76" s="4">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="77" ht="68" spans="1:10">
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>17</v>
+      </c>
+      <c r="I77" s="4">
+        <v>45849</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
   <si>
     <t>#</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t xml:space="preserve">#two-pointers #string #hash-table #sliding-window #必背 </t>
+  </si>
+  <si>
+    <t>The Earliest and Latest Rounds Where Players Compete</t>
+  </si>
+  <si>
+    <t>Maximum Matching of Players With Trainers</t>
+  </si>
+  <si>
+    <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4009,6 +4018,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="78" ht="51" spans="1:9">
+      <c r="A78" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I78" s="4">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="79" ht="34" spans="1:9">
+      <c r="A79" s="1">
+        <v>2410</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" s="4">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="80" ht="51" spans="1:9">
+      <c r="A80" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4">
+        <v>45852</v>
+      </c>
+      <c r="I80" s="4">
+        <v>45852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>#</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
+  </si>
+  <si>
+    <t>Valid Word</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #greedy #核心 </t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4069,6 +4078,64 @@
         <v>45852</v>
       </c>
     </row>
+    <row r="81" ht="17" spans="1:9">
+      <c r="A81" s="1">
+        <v>3136</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4">
+        <v>45853</v>
+      </c>
+      <c r="I81" s="4">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="82" ht="51" spans="1:9">
+      <c r="A82" s="1">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>7</v>
+      </c>
+      <c r="H82" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I82" s="4">
+        <v>45853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="163">
   <si>
     <t>#</t>
   </si>
@@ -507,6 +507,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array #two-pointers #greedy #核心 </t>
+  </si>
+  <si>
+    <t>How to walk through it? Purely Greedy?</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #two-pointers #string #sliding-window #核心 </t>
   </si>
 </sst>
 </file>
@@ -1663,10 +1672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1679,11 +1688,11 @@
     <col min="6" max="7" width="9.23076923076923" style="1"/>
     <col min="8" max="8" width="12.0769230769231" style="1"/>
     <col min="9" max="9" width="14.0576923076923" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.2115384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.2115384615385" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,6 +1720,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" spans="1:10">
       <c r="A2" s="1">
@@ -1740,7 +1750,7 @@
       <c r="I2" s="4">
         <v>45826</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1772,7 +1782,7 @@
       <c r="I3" s="4">
         <v>45826</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1804,7 +1814,7 @@
       <c r="I4" s="4">
         <v>45827</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1836,7 +1846,7 @@
       <c r="I5" s="4">
         <v>45828</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1868,7 +1878,7 @@
       <c r="I6" s="4">
         <v>45829</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1900,7 +1910,7 @@
       <c r="I7" s="4">
         <v>45831</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1932,7 +1942,7 @@
       <c r="I8" s="4">
         <v>45831</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1964,7 +1974,7 @@
       <c r="I9" s="4">
         <v>45835</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1996,11 +2006,11 @@
       <c r="I10" s="4">
         <v>45832</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="11" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A11" s="1">
         <v>153</v>
       </c>
@@ -2028,6 +2038,7 @@
       <c r="I11" s="4">
         <v>45832</v>
       </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A12" s="1">
@@ -2057,11 +2068,11 @@
       <c r="I12" s="4">
         <v>45832</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="13" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A13" s="1">
         <v>278</v>
       </c>
@@ -2089,6 +2100,7 @@
       <c r="I13" s="4">
         <v>45832</v>
       </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A14" s="1">
@@ -2118,7 +2130,7 @@
       <c r="I14" s="4">
         <v>45832</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2150,11 +2162,11 @@
       <c r="I15" s="4">
         <v>45833</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="51" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A16" s="1">
         <v>2311</v>
       </c>
@@ -2182,6 +2194,7 @@
       <c r="I16" s="4">
         <v>45834</v>
       </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="68" spans="1:10">
       <c r="A17" s="1">
@@ -2211,7 +2224,7 @@
       <c r="I17" s="4">
         <v>45835</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2243,11 +2256,11 @@
       <c r="I18" s="4">
         <v>45835</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A19" s="1">
         <v>81</v>
       </c>
@@ -2275,8 +2288,9 @@
       <c r="I19" s="4">
         <v>45835</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A20" s="1">
         <v>2099</v>
       </c>
@@ -2304,6 +2318,7 @@
       <c r="I20" s="4">
         <v>45836</v>
       </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A21" s="1">
@@ -2333,11 +2348,11 @@
       <c r="I21" s="4">
         <v>45837</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="68" spans="1:9">
+    <row r="22" s="1" customFormat="1" ht="68" spans="1:10">
       <c r="A22" s="1">
         <v>594</v>
       </c>
@@ -2365,6 +2380,7 @@
       <c r="I22" s="4">
         <v>45838</v>
       </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A23" s="1">
@@ -2394,7 +2410,7 @@
       <c r="I23" s="4">
         <v>45838</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2426,11 +2442,11 @@
       <c r="I24" s="4">
         <v>45838</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A25" s="1">
         <v>162</v>
       </c>
@@ -2458,8 +2474,9 @@
       <c r="I25" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A26" s="1">
         <v>852</v>
       </c>
@@ -2487,8 +2504,9 @@
       <c r="I26" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A27" s="1">
         <v>875</v>
       </c>
@@ -2516,8 +2534,9 @@
       <c r="I27" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="51" spans="1:9">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A28" s="1">
         <v>1283</v>
       </c>
@@ -2545,8 +2564,9 @@
       <c r="I28" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A29" s="1">
         <v>69</v>
       </c>
@@ -2574,8 +2594,9 @@
       <c r="I29" s="4">
         <v>45838</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="17" spans="1:9">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="17" spans="1:10">
       <c r="A30" s="1">
         <v>1323</v>
       </c>
@@ -2603,6 +2624,7 @@
       <c r="I30" s="4">
         <v>45838</v>
       </c>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A31" s="1">
@@ -2632,11 +2654,11 @@
       <c r="I31" s="4">
         <v>45838</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="32" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A32" s="1">
         <v>3330</v>
       </c>
@@ -2664,6 +2686,7 @@
       <c r="I32" s="4">
         <v>45839</v>
       </c>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="68" spans="1:10">
       <c r="A33" s="1">
@@ -2693,7 +2716,7 @@
       <c r="I33" s="4">
         <v>45839</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2725,7 +2748,7 @@
       <c r="I34" s="4">
         <v>45839</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2757,11 +2780,11 @@
       <c r="I35" s="4">
         <v>45839</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="51" spans="1:9">
+    <row r="36" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A36" s="1">
         <v>75</v>
       </c>
@@ -2789,8 +2812,9 @@
       <c r="I36" s="4">
         <v>45839</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="34" spans="1:9">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -2818,6 +2842,7 @@
       <c r="I37" s="4">
         <v>45839</v>
       </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="51" spans="1:10">
       <c r="A38" s="1">
@@ -2847,11 +2872,11 @@
       <c r="I38" s="4">
         <v>45840</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="34" spans="1:9">
+    <row r="39" s="1" customFormat="1" ht="34" spans="1:10">
       <c r="A39" s="1">
         <v>80</v>
       </c>
@@ -2879,6 +2904,7 @@
       <c r="I39" s="4">
         <v>45840</v>
       </c>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" ht="51" spans="1:9">
       <c r="A40" s="1">
@@ -2966,7 +2992,7 @@
       <c r="I42" s="4">
         <v>45840</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2998,7 +3024,7 @@
       <c r="I43" s="4">
         <v>45840</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3030,7 +3056,7 @@
       <c r="I44" s="4">
         <v>45841</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3149,7 +3175,7 @@
       <c r="I48" s="4">
         <v>45841</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3181,7 +3207,7 @@
       <c r="I49" s="4">
         <v>45841</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3213,7 +3239,7 @@
       <c r="I50" s="4">
         <v>45841</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3274,7 +3300,7 @@
       <c r="I52" s="4">
         <v>45842</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3306,7 +3332,7 @@
       <c r="I53" s="4">
         <v>45842</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3338,7 +3364,7 @@
       <c r="I54" s="4">
         <v>45842</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3370,7 +3396,7 @@
       <c r="I55" s="4">
         <v>45842</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3431,7 +3457,7 @@
       <c r="I57" s="4">
         <v>45842</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3547,7 +3573,7 @@
       <c r="I61" s="4">
         <v>45845</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3666,7 +3692,7 @@
       <c r="I65" s="4">
         <v>45847</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3814,7 +3840,7 @@
       <c r="I70" s="4">
         <v>45848</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3875,7 +3901,7 @@
       <c r="I72" s="4">
         <v>45848</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3907,7 +3933,7 @@
       <c r="I73" s="4">
         <v>45849</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4023,7 +4049,7 @@
       <c r="I77" s="4">
         <v>45849</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4107,7 +4133,7 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="82" ht="51" spans="1:9">
+    <row r="82" ht="51" spans="1:10">
       <c r="A82" s="1">
         <v>11</v>
       </c>
@@ -4134,6 +4160,41 @@
       </c>
       <c r="I82" s="4">
         <v>45853</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" ht="68" spans="1:10">
+      <c r="A83" s="1">
+        <v>76</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>80</v>
+      </c>
+      <c r="H83" s="4">
+        <v>44365</v>
+      </c>
+      <c r="I83" s="4">
+        <v>45853</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="167">
   <si>
     <t>#</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t xml:space="preserve">#hash-table #two-pointers #string #sliding-window #核心 </t>
+  </si>
+  <si>
+    <t>Find the Maximum Length of Valid Subsequence I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #sliding-window #核心 </t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1684,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4197,6 +4209,67 @@
         <v>12</v>
       </c>
     </row>
+    <row r="84" ht="51" spans="1:10">
+      <c r="A84" s="1">
+        <v>3201</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>50</v>
+      </c>
+      <c r="H84" s="4">
+        <v>45854</v>
+      </c>
+      <c r="I84" s="4">
+        <v>45854</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="51" spans="1:9">
+      <c r="A85" s="1">
+        <v>209</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>30</v>
+      </c>
+      <c r="H85" s="4">
+        <v>44366</v>
+      </c>
+      <c r="I85" s="4">
+        <v>45854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
   <si>
     <t>#</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t xml:space="preserve">#two-pointers #sliding-window #核心 </t>
+  </si>
+  <si>
+    <t>Find the Maximum Length of Valid Subsequence II</t>
   </si>
 </sst>
 </file>
@@ -1684,10 +1687,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4270,6 +4273,38 @@
         <v>45854</v>
       </c>
     </row>
+    <row r="86" ht="51" spans="1:10">
+      <c r="A86" s="1">
+        <v>3202</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>8</v>
+      </c>
+      <c r="H86" s="4">
+        <v>45855</v>
+      </c>
+      <c r="I86" s="4">
+        <v>45855</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="171">
   <si>
     <t>#</t>
   </si>
@@ -531,6 +531,15 @@
   </si>
   <si>
     <t>Find the Maximum Length of Valid Subsequence II</t>
+  </si>
+  <si>
+    <t>Minimum Difference in Sums After Removal of Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#heap #dynamic-programming </t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1687,10 +1696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4305,6 +4314,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="87" ht="51" spans="1:10">
+      <c r="A87" s="1">
+        <v>2163</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>30</v>
+      </c>
+      <c r="H87" s="4">
+        <v>45856</v>
+      </c>
+      <c r="I87" s="4">
+        <v>45856</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="174">
   <si>
     <t>#</t>
   </si>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Delete Characters to Make Fancy String</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #backtracking #dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1705,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B84" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B86" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4346,6 +4355,67 @@
         <v>170</v>
       </c>
     </row>
+    <row r="88" ht="34" spans="1:9">
+      <c r="A88" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>12</v>
+      </c>
+      <c r="H88" s="4">
+        <v>45859</v>
+      </c>
+      <c r="I88" s="4">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="89" ht="68" spans="1:10">
+      <c r="A89" s="1">
+        <v>465</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>90</v>
+      </c>
+      <c r="H89" s="4">
+        <v>45859</v>
+      </c>
+      <c r="I89" s="4">
+        <v>45859</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="177">
   <si>
     <t>#</t>
   </si>
@@ -549,6 +549,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array #backtracking #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Maximum Erasure Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #hash-table #sliding-window </t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1714,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B86" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4416,6 +4425,61 @@
         <v>83</v>
       </c>
     </row>
+    <row r="90" ht="34" spans="1:9">
+      <c r="A90" s="1">
+        <v>1695</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>31</v>
+      </c>
+      <c r="H90" s="4">
+        <v>45860</v>
+      </c>
+      <c r="I90" s="4">
+        <v>45860</v>
+      </c>
+    </row>
+    <row r="91" ht="17" spans="1:9">
+      <c r="A91" s="1">
+        <v>146</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>10</v>
+      </c>
+      <c r="H91" s="4">
+        <v>45860</v>
+      </c>
+      <c r="I91" s="4">
+        <v>45860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
   <si>
     <t>#</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Maximum Score From Removing Substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #stack #greedy </t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91:I91"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4473,11 +4479,38 @@
       <c r="G91" s="1">
         <v>10</v>
       </c>
-      <c r="H91" s="4">
-        <v>45860</v>
-      </c>
+      <c r="H91" s="4"/>
       <c r="I91" s="4">
         <v>45860</v>
+      </c>
+    </row>
+    <row r="92" ht="34" spans="1:9">
+      <c r="A92" s="1">
+        <v>1717</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>30</v>
+      </c>
+      <c r="H92" s="4">
+        <v>45861</v>
+      </c>
+      <c r="I92" s="4">
+        <v>45861</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="187">
   <si>
     <t>#</t>
   </si>
@@ -564,6 +564,30 @@
   </si>
   <si>
     <t xml:space="preserve">#string #stack #greedy </t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #divide-and-conquer #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Minimum Score After Removals on a Tree</t>
+  </si>
+  <si>
+    <t>#array #bit-manipulation #tree #dfs</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>#array #greedy #queue</t>
+  </si>
+  <si>
+    <t>Number of Digit One</t>
+  </si>
+  <si>
+    <t>#math</t>
   </si>
 </sst>
 </file>
@@ -1720,10 +1744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4513,6 +4537,128 @@
         <v>45861</v>
       </c>
     </row>
+    <row r="93" ht="68" spans="1:9">
+      <c r="A93" s="1">
+        <v>53</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>20</v>
+      </c>
+      <c r="I93" s="4">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="94" ht="51" spans="1:10">
+      <c r="A94" s="1">
+        <v>2322</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>65</v>
+      </c>
+      <c r="H94" s="4">
+        <v>45862</v>
+      </c>
+      <c r="I94" s="4">
+        <v>45862</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="34" spans="1:10">
+      <c r="A95" s="1">
+        <v>621</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>50</v>
+      </c>
+      <c r="H95" s="4">
+        <v>45862</v>
+      </c>
+      <c r="I95" s="4">
+        <v>45862</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="17" spans="1:10">
+      <c r="A96" s="1">
+        <v>233</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>40</v>
+      </c>
+      <c r="H96" s="4">
+        <v>45863</v>
+      </c>
+      <c r="I96" s="4">
+        <v>45863</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="191">
   <si>
     <t>#</t>
   </si>
@@ -588,6 +588,18 @@
   </si>
   <si>
     <t>#math</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#linked-list #recursive </t>
+  </si>
+  <si>
+    <t>Maximum Unique Subarray Sum After Deletion</t>
+  </si>
+  <si>
+    <t>#array #set</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4659,6 +4671,64 @@
         <v>12</v>
       </c>
     </row>
+    <row r="97" ht="34" spans="1:9">
+      <c r="A97" s="1">
+        <v>206</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5</v>
+      </c>
+      <c r="H97" s="4">
+        <v>45864</v>
+      </c>
+      <c r="I97" s="4">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="98" ht="51" spans="1:9">
+      <c r="A98" s="1">
+        <v>3487</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="4">
+        <v>45864</v>
+      </c>
+      <c r="I98" s="4">
+        <v>45864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
   <si>
     <t>#</t>
   </si>
@@ -593,13 +593,19 @@
     <t>Reverse Linked List</t>
   </si>
   <si>
-    <t xml:space="preserve">#linked-list #recursive </t>
+    <t>#linked-list #recursive #必背</t>
   </si>
   <si>
     <t>Maximum Unique Subarray Sum After Deletion</t>
   </si>
   <si>
     <t>#array #set</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#sliding-window #monotonic-queue #array #queue #核心 </t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1762,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98:I98"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99:I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4729,6 +4735,35 @@
         <v>45864</v>
       </c>
     </row>
+    <row r="99" ht="68" spans="1:9">
+      <c r="A99" s="1">
+        <v>239</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>40</v>
+      </c>
+      <c r="H99" s="4">
+        <v>45864</v>
+      </c>
+      <c r="I99" s="4">
+        <v>45864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="205">
   <si>
     <t>#</t>
   </si>
@@ -606,6 +606,42 @@
   </si>
   <si>
     <t xml:space="preserve">#sliding-window #monotonic-queue #array #queue #核心 </t>
+  </si>
+  <si>
+    <t>Subarray Product Less Than K</t>
+  </si>
+  <si>
+    <t>#array #two-pointers #sliding-window #核心 #count-subarrays</t>
+  </si>
+  <si>
+    <t>template: slide window</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Least K Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #string #sliding-window #divide-and-conquer  #重点 </t>
+  </si>
+  <si>
+    <t>Maximize Subarrays After Removing One Conflicting Pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #segment-tree #enumeration #prefix-sum </t>
+  </si>
+  <si>
+    <t>Count Hills and Valleys in an Array</t>
+  </si>
+  <si>
+    <t>#array</t>
+  </si>
+  <si>
+    <t>ezsy</t>
+  </si>
+  <si>
+    <t>Count Number of Maximum Bitwise-OR Subsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#memoization #backtracking #recursive #dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99:I99"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4569,7 +4605,7 @@
         <v>15</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -4577,8 +4613,11 @@
       <c r="G93" s="1">
         <v>20</v>
       </c>
+      <c r="H93" s="4">
+        <v>44371</v>
+      </c>
       <c r="I93" s="4">
-        <v>45861</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="94" ht="51" spans="1:10">
@@ -4762,6 +4801,157 @@
       </c>
       <c r="I99" s="4">
         <v>45864</v>
+      </c>
+    </row>
+    <row r="100" ht="68" spans="1:10">
+      <c r="A100" s="1">
+        <v>713</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>50</v>
+      </c>
+      <c r="H100" s="4">
+        <v>45864</v>
+      </c>
+      <c r="I100" s="4">
+        <v>45864</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" ht="84" spans="1:10">
+      <c r="A101" s="1">
+        <v>395</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>40</v>
+      </c>
+      <c r="H101" s="4">
+        <v>45864</v>
+      </c>
+      <c r="I101" s="4">
+        <v>45864</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" ht="51" spans="1:9">
+      <c r="A102" s="1">
+        <v>3480</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>50</v>
+      </c>
+      <c r="H102" s="4">
+        <v>45865</v>
+      </c>
+      <c r="I102" s="4">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="103" ht="34" spans="1:9">
+      <c r="A103" s="1">
+        <v>2210</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>10</v>
+      </c>
+      <c r="H103" s="4">
+        <v>45865</v>
+      </c>
+      <c r="I103" s="4">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="104" ht="84" spans="1:9">
+      <c r="A104" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>45</v>
+      </c>
+      <c r="H104" s="4">
+        <v>45866</v>
+      </c>
+      <c r="I104" s="4">
+        <v>45866</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="207">
   <si>
     <t>#</t>
   </si>
@@ -642,6 +642,12 @@
   </si>
   <si>
     <t xml:space="preserve">#memoization #backtracking #recursive #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Minimum Penalty for a Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string </t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105:I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4954,6 +4960,35 @@
         <v>45866</v>
       </c>
     </row>
+    <row r="105" ht="34" spans="1:9">
+      <c r="A105" s="1">
+        <v>2483</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>18</v>
+      </c>
+      <c r="H105" s="4">
+        <v>45866</v>
+      </c>
+      <c r="I105" s="4">
+        <v>45866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="209">
   <si>
     <t>#</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t xml:space="preserve">#string </t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>#array #prefix-sum</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1810,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105:I105"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4989,6 +4995,35 @@
         <v>45866</v>
       </c>
     </row>
+    <row r="106" ht="34" spans="1:9">
+      <c r="A106" s="1">
+        <v>238</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>14</v>
+      </c>
+      <c r="H106" s="4">
+        <v>45867</v>
+      </c>
+      <c r="I106" s="4">
+        <v>45867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="215">
   <si>
     <t>#</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>#array #prefix-sum</t>
+  </si>
+  <si>
+    <t>Smallest Subarrays With Maximum Bitwise OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #bit-minipulation #sliding-window </t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #stack #tree #dfs #bst #heap #binary-tree </t>
+  </si>
+  <si>
+    <t>deque</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
   </si>
 </sst>
 </file>
@@ -1810,10 +1828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109:I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5024,6 +5042,96 @@
         <v>45867</v>
       </c>
     </row>
+    <row r="107" ht="51" spans="1:9">
+      <c r="A107" s="1">
+        <v>2411</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>50</v>
+      </c>
+      <c r="H107" s="4">
+        <v>45867</v>
+      </c>
+      <c r="I107" s="4">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="108" ht="68" spans="1:10">
+      <c r="A108" s="1">
+        <v>272</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>15</v>
+      </c>
+      <c r="H108" s="4">
+        <v>45867</v>
+      </c>
+      <c r="I108" s="4">
+        <v>45867</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" ht="34" spans="1:9">
+      <c r="A109" s="1">
+        <v>270</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>15</v>
+      </c>
+      <c r="H109" s="4">
+        <v>45867</v>
+      </c>
+      <c r="I109" s="4">
+        <v>45867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="216">
   <si>
     <t>#</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Longest Subarray With Maximum Bitwise AND</t>
   </si>
 </sst>
 </file>
@@ -1828,10 +1831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109:I109"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5132,6 +5135,35 @@
         <v>45867</v>
       </c>
     </row>
+    <row r="110" ht="34" spans="1:9">
+      <c r="A110" s="1">
+        <v>2419</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>10</v>
+      </c>
+      <c r="H110" s="4">
+        <v>45868</v>
+      </c>
+      <c r="I110" s="4">
+        <v>45868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>Longest Subarray With Maximum Bitwise AND</t>
+  </si>
+  <si>
+    <t>Bitwise ORs of Subarrays</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5164,6 +5167,14 @@
         <v>45868</v>
       </c>
     </row>
+    <row r="111" ht="17" spans="1:2">
+      <c r="A111" s="1">
+        <v>898</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="221">
   <si>
     <t>#</t>
   </si>
@@ -678,6 +678,18 @@
   </si>
   <si>
     <t>Bitwise ORs of Subarrays</t>
+  </si>
+  <si>
+    <t>#array #bit-minipulation #dynamic-programming</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#tree #binary-tree #hash-table #bfs </t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1846,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5167,12 +5179,91 @@
         <v>45868</v>
       </c>
     </row>
-    <row r="111" ht="17" spans="1:2">
+    <row r="111" ht="68" spans="1:9">
       <c r="A111" s="1">
         <v>898</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>30</v>
+      </c>
+      <c r="H111" s="4">
+        <v>45869</v>
+      </c>
+      <c r="I111" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="112" ht="34" spans="1:9">
+      <c r="A112" s="1">
+        <v>118</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4">
+        <v>45870</v>
+      </c>
+      <c r="I112" s="4">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="113" ht="34" spans="1:9">
+      <c r="A113" s="1">
+        <v>314</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>23</v>
+      </c>
+      <c r="H113" s="4">
+        <v>45870</v>
+      </c>
+      <c r="I113" s="4">
+        <v>45870</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="230">
   <si>
     <t>#</t>
   </si>
@@ -690,6 +690,33 @@
   </si>
   <si>
     <t xml:space="preserve">#tree #binary-tree #hash-table #bfs </t>
+  </si>
+  <si>
+    <t>Rearranging Fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#greedy #hash-table #sorting </t>
+  </si>
+  <si>
+    <t>One Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #two-pointers #array </t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #sliding-window </t>
+  </si>
+  <si>
+    <t>Fruits Into Baskets II</t>
+  </si>
+  <si>
+    <t>Maximum Fruits Harvested After at Most K Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #two-pointers #sliding-window </t>
   </si>
 </sst>
 </file>
@@ -1846,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118:I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5266,6 +5293,151 @@
         <v>45870</v>
       </c>
     </row>
+    <row r="114" ht="34" spans="1:9">
+      <c r="A114" s="1">
+        <v>2561</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>20</v>
+      </c>
+      <c r="H114" s="4">
+        <v>45871</v>
+      </c>
+      <c r="I114" s="4">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="115" ht="34" spans="1:9">
+      <c r="A115" s="1">
+        <v>161</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>13</v>
+      </c>
+      <c r="H115" s="4">
+        <v>45872</v>
+      </c>
+      <c r="I115" s="4">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="116" ht="34" spans="1:9">
+      <c r="A116" s="1">
+        <v>904</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>20</v>
+      </c>
+      <c r="H116" s="4">
+        <v>45873</v>
+      </c>
+      <c r="I116" s="4">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="117" ht="17" spans="1:9">
+      <c r="A117" s="1">
+        <v>3477</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="4">
+        <v>45874</v>
+      </c>
+      <c r="I117" s="4">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="118" ht="51" spans="1:9">
+      <c r="A118" s="1">
+        <v>2106</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>36</v>
+      </c>
+      <c r="H118" s="4">
+        <v>45874</v>
+      </c>
+      <c r="I118" s="4">
+        <v>45874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14540"/>
+    <workbookView windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="233">
   <si>
     <t>#</t>
   </si>
@@ -717,6 +717,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array #two-pointers #sliding-window </t>
+  </si>
+  <si>
+    <t>Fruits Into Baskets III</t>
+  </si>
+  <si>
+    <t>#binary-tree #segment-tree #ordered-set</t>
+  </si>
+  <si>
+    <t>?segTree</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +1882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118:I118"/>
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5438,6 +5447,38 @@
         <v>45874</v>
       </c>
     </row>
+    <row r="119" ht="51" spans="1:10">
+      <c r="A119" s="1">
+        <v>3479</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>50</v>
+      </c>
+      <c r="H119" s="4">
+        <v>45875</v>
+      </c>
+      <c r="I119" s="4">
+        <v>45875</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14500"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
   <si>
     <t>#</t>
   </si>
@@ -726,6 +726,30 @@
   </si>
   <si>
     <t>?segTree</t>
+  </si>
+  <si>
+    <t>Find the Maximum Number of Fruits Collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #rolling-array #matrix </t>
+  </si>
+  <si>
+    <t>Soup Servings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #math </t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>return n &amp; (-n) == n</t>
+  </si>
+  <si>
+    <t>Find Smallest Common Element in All Rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #binary-search #matrix #counting </t>
   </si>
 </sst>
 </file>
@@ -1882,10 +1906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5479,6 +5503,128 @@
         <v>232</v>
       </c>
     </row>
+    <row r="120" ht="68" spans="1:9">
+      <c r="A120" s="1">
+        <v>3363</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>60</v>
+      </c>
+      <c r="H120" s="4">
+        <v>45876</v>
+      </c>
+      <c r="I120" s="4">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="121" ht="51" spans="1:10">
+      <c r="A121" s="1">
+        <v>808</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>20</v>
+      </c>
+      <c r="H121" s="4">
+        <v>45877</v>
+      </c>
+      <c r="I121" s="4">
+        <v>45877</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" ht="34" spans="1:10">
+      <c r="A122" s="1">
+        <v>231</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>5</v>
+      </c>
+      <c r="H122" s="4">
+        <v>45878</v>
+      </c>
+      <c r="I122" s="4">
+        <v>45878</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" ht="51" spans="1:9">
+      <c r="A123" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="4">
+        <v>45878</v>
+      </c>
+      <c r="I123" s="4">
+        <v>45878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="243">
   <si>
     <t>#</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t xml:space="preserve">#hash-table #binary-search #matrix #counting </t>
+  </si>
+  <si>
+    <t>Reordered Power of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#enumeration </t>
   </si>
 </sst>
 </file>
@@ -1906,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5625,6 +5631,35 @@
         <v>45878</v>
       </c>
     </row>
+    <row r="124" ht="17" spans="1:9">
+      <c r="A124" s="1">
+        <v>869</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>20</v>
+      </c>
+      <c r="H124" s="4">
+        <v>45879</v>
+      </c>
+      <c r="I124" s="4">
+        <v>45879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="244">
   <si>
     <t>#</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t xml:space="preserve">#enumeration </t>
+  </si>
+  <si>
+    <t>Range Product Queries of Powers</t>
   </si>
 </sst>
 </file>
@@ -1912,10 +1915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5660,6 +5663,32 @@
         <v>45879</v>
       </c>
     </row>
+    <row r="125" ht="34" spans="1:9">
+      <c r="A125" s="1">
+        <v>2438</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>20</v>
+      </c>
+      <c r="H125" s="4">
+        <v>45880</v>
+      </c>
+      <c r="I125" s="4">
+        <v>45880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="247">
   <si>
     <t>#</t>
   </si>
@@ -759,6 +759,15 @@
   </si>
   <si>
     <t>Range Product Queries of Powers</t>
+  </si>
+  <si>
+    <t>Ways to Express an Integer as Sum of Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming </t>
+  </si>
+  <si>
+    <t>Power of Three</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+      <selection activeCell="H129" sqref="H129:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5689,6 +5698,83 @@
         <v>45880</v>
       </c>
     </row>
+    <row r="126" ht="34" spans="1:10">
+      <c r="A126" s="1">
+        <v>2787</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>30</v>
+      </c>
+      <c r="H126" s="4">
+        <v>45881</v>
+      </c>
+      <c r="I126" s="4">
+        <v>45881</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="17" spans="1:9">
+      <c r="A127" s="1">
+        <v>326</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>5</v>
+      </c>
+      <c r="H127" s="4">
+        <v>45882</v>
+      </c>
+      <c r="I127" s="4">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9">
+      <c r="H128" s="4">
+        <v>45883</v>
+      </c>
+      <c r="I128" s="4">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129" s="4">
+        <v>45883</v>
+      </c>
+      <c r="I129" s="4">
+        <v>45883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
   <si>
     <t>#</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Largest 3-Same-Digit Number in String</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1930,7 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129:I129"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5759,7 +5762,28 @@
         <v>45882</v>
       </c>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" ht="34" spans="1:9">
+      <c r="A128" s="1">
+        <v>2264</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>5</v>
+      </c>
       <c r="H128" s="4">
         <v>45883</v>
       </c>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="250">
   <si>
     <t>#</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>Largest 3-Same-Digit Number in String</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #prefix-sum </t>
   </si>
 </sst>
 </file>
@@ -1929,8 +1935,8 @@
   <sheetPr/>
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5791,7 +5797,28 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" ht="34" spans="1:9">
+      <c r="A129" s="1">
+        <v>303</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
       <c r="H129" s="4">
         <v>45883</v>
       </c>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="252">
   <si>
     <t>#</t>
   </si>
@@ -777,6 +777,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #prefix-sum </t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>#binary-search</t>
   </si>
 </sst>
 </file>
@@ -1933,10 +1939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5826,6 +5832,35 @@
         <v>45883</v>
       </c>
     </row>
+    <row r="130" ht="17" spans="1:9">
+      <c r="A130" s="1">
+        <v>342</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>5</v>
+      </c>
+      <c r="H130" s="4">
+        <v>45884</v>
+      </c>
+      <c r="I130" s="4">
+        <v>45884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="259">
   <si>
     <t>#</t>
   </si>
@@ -783,6 +783,27 @@
   </si>
   <si>
     <t>#binary-search</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Number of Zero-Filled Subarrays</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Design File System</t>
+  </si>
+  <si>
+    <t>Count Submatrices With All Ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #monotonic-stack #dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3588,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>50</v>
@@ -3597,7 +3618,7 @@
         <v>45842</v>
       </c>
       <c r="I53" s="4">
-        <v>45842</v>
+        <v>45887</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>12</v>
@@ -5859,6 +5880,122 @@
       </c>
       <c r="I130" s="4">
         <v>45884</v>
+      </c>
+    </row>
+    <row r="131" ht="17" spans="1:8">
+      <c r="A131" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H131" s="4">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="132" ht="17" spans="1:8">
+      <c r="A132" s="1">
+        <v>837</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H132" s="4">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="133" ht="17" spans="1:8">
+      <c r="A133" s="1">
+        <v>679</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H133" s="4">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="134" ht="34" spans="1:8">
+      <c r="A134" s="1">
+        <v>2348</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H134" s="4">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="135" ht="51" spans="1:9">
+      <c r="A135" s="1">
+        <v>1277</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>25</v>
+      </c>
+      <c r="H135" s="4">
+        <v>45889</v>
+      </c>
+      <c r="I135" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="136" ht="17" spans="1:9">
+      <c r="A136" s="1">
+        <v>1166</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H136" s="4">
+        <v>45889</v>
+      </c>
+      <c r="I136" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="137" ht="68" spans="1:9">
+      <c r="A137" s="1">
+        <v>1504</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>70</v>
+      </c>
+      <c r="H137" s="4">
+        <v>45890</v>
+      </c>
+      <c r="I137" s="4">
+        <v>45890</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="261">
   <si>
     <t>#</t>
   </si>
@@ -804,6 +804,12 @@
   </si>
   <si>
     <t xml:space="preserve">#matrix #monotonic-stack #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Find the Minimum Area to Cover All Ones I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #matrix </t>
   </si>
 </sst>
 </file>
@@ -1960,10 +1966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5998,6 +6004,35 @@
         <v>45890</v>
       </c>
     </row>
+    <row r="138" ht="34" spans="1:9">
+      <c r="A138" s="1">
+        <v>3195</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1">
+        <v>15</v>
+      </c>
+      <c r="H138" s="4">
+        <v>45891</v>
+      </c>
+      <c r="I138" s="4">
+        <v>45891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="272">
   <si>
     <t>#</t>
   </si>
@@ -810,6 +810,39 @@
   </si>
   <si>
     <t xml:space="preserve">#array #matrix </t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>Maximum Area of Longest Diagonal Rectangle</t>
+  </si>
+  <si>
+    <t>Before and After Puzzle</t>
+  </si>
+  <si>
+    <t>#array #hash-table #string #sorting</t>
+  </si>
+  <si>
+    <t>Length of Longest V-Shaped Diagonal Segment</t>
+  </si>
+  <si>
+    <t>#matrix #dfs #cache</t>
+  </si>
+  <si>
+    <t>@cache?</t>
+  </si>
+  <si>
+    <t>Sort Matrix by Diagonals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #sorting </t>
+  </si>
+  <si>
+    <t>Alice and Bob Playing Flower Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math </t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6033,6 +6066,192 @@
         <v>45891</v>
       </c>
     </row>
+    <row r="139" spans="8:9">
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="8:9">
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+    </row>
+    <row r="141" spans="8:9">
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" ht="17" spans="1:9">
+      <c r="A142" s="1">
+        <v>498</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>25</v>
+      </c>
+      <c r="H142" s="4">
+        <v>45894</v>
+      </c>
+      <c r="I142" s="4">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="143" ht="51" spans="1:9">
+      <c r="A143" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+      <c r="H143" s="4">
+        <v>45895</v>
+      </c>
+      <c r="I143" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="144" ht="34" spans="1:9">
+      <c r="A144" s="1">
+        <v>1181</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>25</v>
+      </c>
+      <c r="H144" s="4">
+        <v>45895</v>
+      </c>
+      <c r="I144" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="145" ht="51" spans="1:10">
+      <c r="A145" s="1">
+        <v>3459</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4">
+        <v>45896</v>
+      </c>
+      <c r="I145" s="4">
+        <v>45896</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" ht="17" spans="1:9">
+      <c r="A146" s="1">
+        <v>3446</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>22</v>
+      </c>
+      <c r="H146" s="4">
+        <v>45897</v>
+      </c>
+      <c r="I146" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="147" ht="34" spans="1:9">
+      <c r="A147" s="1">
+        <v>3021</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>10</v>
+      </c>
+      <c r="H147" s="4">
+        <v>45898</v>
+      </c>
+      <c r="I147" s="4">
+        <v>45898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="274">
   <si>
     <t>#</t>
   </si>
@@ -843,6 +843,12 @@
   </si>
   <si>
     <t xml:space="preserve">#math </t>
+  </si>
+  <si>
+    <t>Maximum Average Pass Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #heap #math #greedy </t>
   </si>
 </sst>
 </file>
@@ -1999,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6252,6 +6258,35 @@
         <v>45898</v>
       </c>
     </row>
+    <row r="148" ht="34" spans="1:9">
+      <c r="A148" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1">
+        <v>21</v>
+      </c>
+      <c r="H148" s="4">
+        <v>45901</v>
+      </c>
+      <c r="I148" s="4">
+        <v>45901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
   <si>
     <t>#</t>
   </si>
@@ -843,6 +843,12 @@
   </si>
   <si>
     <t xml:space="preserve">#math </t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #bit-minipulation #hash-table #backtracking </t>
   </si>
   <si>
     <t>Maximum Average Pass Ratio</t>
@@ -2005,10 +2011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6258,32 +6264,74 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="148" ht="34" spans="1:9">
-      <c r="A148" s="1">
+    <row r="148" spans="8:9">
+      <c r="H148" s="4">
+        <v>45899</v>
+      </c>
+      <c r="I148" s="4">
+        <v>45899</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149" s="4">
+        <v>45900</v>
+      </c>
+      <c r="I149" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="150" ht="68" spans="1:9">
+      <c r="A150" s="1">
+        <v>37</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4">
+        <v>45900</v>
+      </c>
+      <c r="I150" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="151" ht="34" spans="1:9">
+      <c r="A151" s="1">
         <v>1972</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-      <c r="G148" s="1">
+      <c r="B151" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
         <v>21</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H151" s="4">
         <v>45901</v>
       </c>
-      <c r="I148" s="4">
+      <c r="I151" s="4">
         <v>45901</v>
       </c>
     </row>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="279">
   <si>
     <t>#</t>
   </si>
@@ -843,6 +843,15 @@
   </si>
   <si>
     <t xml:space="preserve">#math </t>
+  </si>
+  <si>
+    <t>Shortest Distance to Target Color</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#set #matrix </t>
   </si>
   <si>
     <t>Sudoku Solver</t>
@@ -2014,7 +2023,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6264,7 +6273,28 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" ht="34" spans="1:9">
+      <c r="A148" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>30</v>
+      </c>
       <c r="H148" s="4">
         <v>45899</v>
       </c>
@@ -6272,7 +6302,28 @@
         <v>45899</v>
       </c>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" ht="17" spans="1:9">
+      <c r="A149" s="1">
+        <v>36</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
+        <v>11</v>
+      </c>
       <c r="H149" s="4">
         <v>45900</v>
       </c>
@@ -6285,10 +6336,10 @@
         <v>37</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>23</v>
@@ -6311,10 +6362,10 @@
         <v>1972</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>15</v>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="281">
   <si>
     <t>#</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t xml:space="preserve">#array #heap #math #greedy </t>
+  </si>
+  <si>
+    <t>Find the Number of Ways to Place People I</t>
+  </si>
+  <si>
+    <t>#greedy #sorting</t>
   </si>
 </sst>
 </file>
@@ -2020,10 +2026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6386,6 +6392,35 @@
         <v>45901</v>
       </c>
     </row>
+    <row r="152" ht="34" spans="1:9">
+      <c r="A152" s="1">
+        <v>3025</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>21</v>
+      </c>
+      <c r="H152" s="4">
+        <v>45902</v>
+      </c>
+      <c r="I152" s="4">
+        <v>45902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="283">
   <si>
     <t>#</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>#greedy #sorting</t>
+  </si>
+  <si>
+    <t>Find the Number of Ways to Place People II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #math #geometry #sorting #enumeration </t>
   </si>
 </sst>
 </file>
@@ -2026,10 +2032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6421,6 +6427,35 @@
         <v>45902</v>
       </c>
     </row>
+    <row r="153" ht="51" spans="1:9">
+      <c r="A153" s="1">
+        <v>3027</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1">
+        <v>20</v>
+      </c>
+      <c r="H153" s="4">
+        <v>45903</v>
+      </c>
+      <c r="I153" s="4">
+        <v>45903</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="286">
   <si>
     <t>#</t>
   </si>
@@ -876,6 +876,15 @@
   </si>
   <si>
     <t xml:space="preserve">#array #math #geometry #sorting #enumeration </t>
+  </si>
+  <si>
+    <t>Find Closest Person</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make the Integer Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bit-minipulation </t>
   </si>
 </sst>
 </file>
@@ -2032,10 +2041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6456,6 +6465,64 @@
         <v>45903</v>
       </c>
     </row>
+    <row r="154" ht="17" spans="1:9">
+      <c r="A154" s="1">
+        <v>3516</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>5</v>
+      </c>
+      <c r="H154" s="4">
+        <v>45904</v>
+      </c>
+      <c r="I154" s="4">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="155" ht="34" spans="1:9">
+      <c r="A155" s="1">
+        <v>2749</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>13</v>
+      </c>
+      <c r="H155" s="4">
+        <v>45905</v>
+      </c>
+      <c r="I155" s="4">
+        <v>45905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="288">
   <si>
     <t>#</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t xml:space="preserve">#bit-minipulation </t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #sliding-window </t>
   </si>
 </sst>
 </file>
@@ -2041,10 +2047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156:I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6523,6 +6529,35 @@
         <v>45905</v>
       </c>
     </row>
+    <row r="156" ht="34" spans="1:9">
+      <c r="A156" s="1">
+        <v>567</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>19</v>
+      </c>
+      <c r="H156" s="4">
+        <v>45905</v>
+      </c>
+      <c r="I156" s="4">
+        <v>45905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="290">
   <si>
     <t>#</t>
   </si>
@@ -635,9 +635,6 @@
     <t>#array</t>
   </si>
   <si>
-    <t>ezsy</t>
-  </si>
-  <si>
     <t>Count Number of Maximum Bitwise-OR Subsets</t>
   </si>
   <si>
@@ -891,6 +888,15 @@
   </si>
   <si>
     <t xml:space="preserve">#two-pointers #sliding-window </t>
+  </si>
+  <si>
+    <t>Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>#math #array</t>
+  </si>
+  <si>
+    <t>Convert Integer to the Sum of Two No-Zero Integers</t>
   </si>
 </sst>
 </file>
@@ -2047,10 +2053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156:I156"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5156,7 +5162,7 @@
         <v>201</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -5179,10 +5185,10 @@
         <v>2044</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>15</v>
@@ -5208,10 +5214,10 @@
         <v>2483</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>15</v>
@@ -5237,10 +5243,10 @@
         <v>238</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>15</v>
@@ -5266,10 +5272,10 @@
         <v>2411</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>15</v>
@@ -5295,10 +5301,10 @@
         <v>272</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>23</v>
@@ -5319,7 +5325,7 @@
         <v>45867</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" ht="34" spans="1:9">
@@ -5327,7 +5333,7 @@
         <v>270</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>139</v>
@@ -5356,7 +5362,7 @@
         <v>2419</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>201</v>
@@ -5385,10 +5391,10 @@
         <v>898</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>15</v>
@@ -5414,7 +5420,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>164</v>
@@ -5443,10 +5449,10 @@
         <v>314</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>15</v>
@@ -5472,10 +5478,10 @@
         <v>2561</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>23</v>
@@ -5501,10 +5507,10 @@
         <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>15</v>
@@ -5530,10 +5536,10 @@
         <v>904</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>15</v>
@@ -5559,7 +5565,7 @@
         <v>3477</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>201</v>
@@ -5588,10 +5594,10 @@
         <v>2106</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>23</v>
@@ -5617,10 +5623,10 @@
         <v>3479</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>15</v>
@@ -5641,7 +5647,7 @@
         <v>45875</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" ht="68" spans="1:9">
@@ -5649,10 +5655,10 @@
         <v>3363</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>23</v>
@@ -5678,10 +5684,10 @@
         <v>808</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>15</v>
@@ -5710,7 +5716,7 @@
         <v>231</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>105</v>
@@ -5734,7 +5740,7 @@
         <v>45878</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" ht="51" spans="1:9">
@@ -5742,10 +5748,10 @@
         <v>1198</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>15</v>
@@ -5771,10 +5777,10 @@
         <v>869</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>15</v>
@@ -5800,7 +5806,7 @@
         <v>2438</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>15</v>
@@ -5826,10 +5832,10 @@
         <v>2787</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>15</v>
@@ -5858,7 +5864,7 @@
         <v>326</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>186</v>
@@ -5887,7 +5893,7 @@
         <v>2264</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>71</v>
@@ -5916,10 +5922,10 @@
         <v>303</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>11</v>
@@ -5945,10 +5951,10 @@
         <v>342</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -5996,7 +6002,7 @@
         <v>679</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H133" s="4">
         <v>45887</v>
@@ -6007,7 +6013,7 @@
         <v>2348</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H134" s="4">
         <v>45888</v>
@@ -6018,10 +6024,10 @@
         <v>1277</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>15</v>
@@ -6047,7 +6053,7 @@
         <v>1166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H136" s="4">
         <v>45889</v>
@@ -6061,10 +6067,10 @@
         <v>1504</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>15</v>
@@ -6090,10 +6096,10 @@
         <v>3195</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>15</v>
@@ -6131,10 +6137,10 @@
         <v>498</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>15</v>
@@ -6160,7 +6166,7 @@
         <v>3000</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
@@ -6186,10 +6192,10 @@
         <v>1181</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>15</v>
@@ -6215,10 +6221,10 @@
         <v>3459</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>23</v>
@@ -6239,7 +6245,7 @@
         <v>45896</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" ht="17" spans="1:9">
@@ -6247,10 +6253,10 @@
         <v>3446</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>15</v>
@@ -6276,10 +6282,10 @@
         <v>3021</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>15</v>
@@ -6305,7 +6311,7 @@
         <v>1182</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>201</v>
@@ -6334,10 +6340,10 @@
         <v>36</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>15</v>
@@ -6363,10 +6369,10 @@
         <v>37</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>23</v>
@@ -6389,10 +6395,10 @@
         <v>1972</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>15</v>
@@ -6418,10 +6424,10 @@
         <v>3025</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>15</v>
@@ -6447,10 +6453,10 @@
         <v>3027</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>23</v>
@@ -6476,7 +6482,7 @@
         <v>3516</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>186</v>
@@ -6505,10 +6511,10 @@
         <v>2749</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>15</v>
@@ -6534,10 +6540,10 @@
         <v>567</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>15</v>
@@ -6556,6 +6562,64 @@
       </c>
       <c r="I156" s="4">
         <v>45905</v>
+      </c>
+    </row>
+    <row r="157" ht="34" spans="1:9">
+      <c r="A157" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>3</v>
+      </c>
+      <c r="H157" s="4">
+        <v>45908</v>
+      </c>
+      <c r="I157" s="4">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="158" ht="51" spans="1:9">
+      <c r="A158" s="1">
+        <v>1317</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>10</v>
+      </c>
+      <c r="H158" s="4">
+        <v>45908</v>
+      </c>
+      <c r="I158" s="4">
+        <v>45908</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14480"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
   <si>
     <t>#</t>
   </si>
@@ -897,6 +897,15 @@
   </si>
   <si>
     <t>Convert Integer to the Sum of Two No-Zero Integers</t>
+  </si>
+  <si>
+    <t>Sort Vowels in a String</t>
+  </si>
+  <si>
+    <t>Vowels Game in a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #string #greedy </t>
   </si>
 </sst>
 </file>
@@ -2053,10 +2062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6622,6 +6631,64 @@
         <v>45908</v>
       </c>
     </row>
+    <row r="159" ht="17" spans="1:9">
+      <c r="A159" s="1">
+        <v>2785</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>10</v>
+      </c>
+      <c r="H159" s="4">
+        <v>45912</v>
+      </c>
+      <c r="I159" s="4">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="160" ht="34" spans="1:9">
+      <c r="A160" s="1">
+        <v>3227</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>21</v>
+      </c>
+      <c r="H160" s="4">
+        <v>45913</v>
+      </c>
+      <c r="I160" s="4">
+        <v>45913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t xml:space="preserve">#math #string #greedy </t>
+  </si>
+  <si>
+    <t>Maximum Number of Words You Can Type</t>
   </si>
 </sst>
 </file>
@@ -2062,10 +2065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6689,6 +6692,35 @@
         <v>45913</v>
       </c>
     </row>
+    <row r="161" ht="34" spans="1:9">
+      <c r="A161" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>3</v>
+      </c>
+      <c r="H161" s="4">
+        <v>45915</v>
+      </c>
+      <c r="I161" s="4">
+        <v>45915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="299">
   <si>
     <t>#</t>
   </si>
@@ -909,6 +909,21 @@
   </si>
   <si>
     <t>Maximum Number of Words You Can Type</t>
+  </si>
+  <si>
+    <t>Largest Unique Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array  #hash-table </t>
+  </si>
+  <si>
+    <t>Check If a Number Is Majority Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Replace Non-Coprime Numbers in Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #greedy #stack </t>
   </si>
 </sst>
 </file>
@@ -2065,10 +2080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6721,6 +6736,93 @@
         <v>45915</v>
       </c>
     </row>
+    <row r="162" ht="34" spans="1:9">
+      <c r="A162" s="1">
+        <v>1133</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>2</v>
+      </c>
+      <c r="H162" s="4">
+        <v>45915</v>
+      </c>
+      <c r="I162" s="4">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="163" ht="51" spans="1:9">
+      <c r="A163" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="4">
+        <v>45915</v>
+      </c>
+      <c r="I163" s="4">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="164" ht="34" spans="1:9">
+      <c r="A164" s="1">
+        <v>2197</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45</v>
+      </c>
+      <c r="H164" s="4">
+        <v>45916</v>
+      </c>
+      <c r="I164" s="4">
+        <v>45916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="305">
   <si>
     <t>#</t>
   </si>
@@ -924,6 +924,24 @@
   </si>
   <si>
     <t xml:space="preserve">#array #greedy #stack </t>
+  </si>
+  <si>
+    <t>Design a Food Rating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #string #hash-table #set </t>
+  </si>
+  <si>
+    <t>Count Elements With Maximum Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #hash-table #counting </t>
+  </si>
+  <si>
+    <t>Analyze User Website Visit Pattern</t>
+  </si>
+  <si>
+    <t>#array #hash-table #string #permutation #combination</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6823,6 +6841,93 @@
         <v>45916</v>
       </c>
     </row>
+    <row r="165" ht="34" spans="1:9">
+      <c r="A165" s="1">
+        <v>2353</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1">
+        <v>23</v>
+      </c>
+      <c r="H165" s="4">
+        <v>45917</v>
+      </c>
+      <c r="I165" s="4">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="166" ht="34" spans="1:9">
+      <c r="A166" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>5</v>
+      </c>
+      <c r="H166" s="4">
+        <v>45922</v>
+      </c>
+      <c r="I166" s="4">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="167" ht="68" spans="1:9">
+      <c r="A167" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1">
+        <v>10</v>
+      </c>
+      <c r="H167" s="4">
+        <v>45922</v>
+      </c>
+      <c r="I167" s="4">
+        <v>45922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="307">
   <si>
     <t>#</t>
   </si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>#array #hash-table #string #permutation #combination</t>
+  </si>
+  <si>
+    <t>Compare Version Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #two-pointers </t>
   </si>
 </sst>
 </file>
@@ -2098,10 +2104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6928,6 +6934,35 @@
         <v>45922</v>
       </c>
     </row>
+    <row r="168" ht="34" spans="1:9">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1">
+        <v>11</v>
+      </c>
+      <c r="H168" s="4">
+        <v>45923</v>
+      </c>
+      <c r="I168" s="4">
+        <v>45923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="308">
   <si>
     <t>#</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t xml:space="preserve">#string #two-pointers </t>
+  </si>
+  <si>
+    <t>Triangle</t>
   </si>
 </sst>
 </file>
@@ -2104,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6963,6 +6966,35 @@
         <v>45923</v>
       </c>
     </row>
+    <row r="169" ht="34" spans="1:9">
+      <c r="A169" s="1">
+        <v>120</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1">
+        <v>20</v>
+      </c>
+      <c r="H169" s="4">
+        <v>45925</v>
+      </c>
+      <c r="I169" s="4">
+        <v>45925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="309">
   <si>
     <t>#</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Triangle</t>
+  </si>
+  <si>
+    <t>Valid Triangle Number</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -6995,6 +6998,40 @@
         <v>45925</v>
       </c>
     </row>
+    <row r="170" ht="17" spans="1:9">
+      <c r="A170" s="1">
+        <v>611</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>5</v>
+      </c>
+      <c r="H170" s="4">
+        <v>45926</v>
+      </c>
+      <c r="I170" s="4">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="171" ht="17" spans="3:3">
+      <c r="C171" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="311">
   <si>
     <t>#</t>
   </si>
@@ -954,6 +954,12 @@
   </si>
   <si>
     <t>Valid Triangle Number</t>
+  </si>
+  <si>
+    <t>Minimum Score Triangulation of Polygon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #array </t>
   </si>
 </sst>
 </file>
@@ -2112,8 +2118,8 @@
   <sheetPr/>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="J170" sqref="J170"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7027,9 +7033,33 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="171" ht="17" spans="3:3">
+    <row r="171" ht="51" spans="1:9">
+      <c r="A171" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="C171" s="2" t="s">
-        <v>201</v>
+        <v>310</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1">
+        <v>20</v>
+      </c>
+      <c r="H171" s="4">
+        <v>45929</v>
+      </c>
+      <c r="I171" s="4">
+        <v>45929</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="315">
   <si>
     <t>#</t>
   </si>
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t xml:space="preserve">#dynamic-programming #array </t>
+  </si>
+  <si>
+    <t>Find Triangular Sum of an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #math #simulation #combination </t>
+  </si>
+  <si>
+    <t>Divide Array Into Increasing Sequences</t>
+  </si>
+  <si>
+    <t>#array #counting</t>
   </si>
 </sst>
 </file>
@@ -2116,10 +2128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7062,6 +7074,64 @@
         <v>45929</v>
       </c>
     </row>
+    <row r="172" ht="51" spans="1:9">
+      <c r="A172" s="1">
+        <v>2221</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1">
+        <v>30</v>
+      </c>
+      <c r="H172" s="4">
+        <v>45930</v>
+      </c>
+      <c r="I172" s="4">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="173" ht="34" spans="1:9">
+      <c r="A173" s="1">
+        <v>1121</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1">
+        <v>20</v>
+      </c>
+      <c r="H173" s="4">
+        <v>45930</v>
+      </c>
+      <c r="I173" s="4">
+        <v>45930</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="28700" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="317">
   <si>
     <t>#</t>
   </si>
@@ -972,6 +972,12 @@
   </si>
   <si>
     <t>#array #counting</t>
+  </si>
+  <si>
+    <t>Water Bottles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #simulation </t>
   </si>
 </sst>
 </file>
@@ -2128,10 +2134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7132,6 +7138,35 @@
         <v>45930</v>
       </c>
     </row>
+    <row r="174" ht="17" spans="1:9">
+      <c r="A174" s="1">
+        <v>1518</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1">
+        <v>9</v>
+      </c>
+      <c r="H174" s="4">
+        <v>45931</v>
+      </c>
+      <c r="I174" s="4">
+        <v>45931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14140"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="319">
   <si>
     <t>#</t>
   </si>
@@ -978,6 +978,12 @@
   </si>
   <si>
     <t xml:space="preserve">#math #simulation </t>
+  </si>
+  <si>
+    <t>Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>#dfs</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7167,6 +7173,35 @@
         <v>45931</v>
       </c>
     </row>
+    <row r="175" ht="17" spans="1:9">
+      <c r="A175" s="1">
+        <v>778</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1">
+        <v>20</v>
+      </c>
+      <c r="H175" s="4">
+        <v>45936</v>
+      </c>
+      <c r="I175" s="4">
+        <v>45936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="321">
   <si>
     <t>#</t>
   </si>
@@ -984,6 +984,12 @@
   </si>
   <si>
     <t>#dfs</t>
+  </si>
+  <si>
+    <t>Connecting Cities With Minimum Cost</t>
+  </si>
+  <si>
+    <t>#union-find #graph #minimum-spanning-tree</t>
   </si>
 </sst>
 </file>
@@ -2140,10 +2146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176:I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7202,6 +7208,35 @@
         <v>45936</v>
       </c>
     </row>
+    <row r="176" ht="68" spans="1:9">
+      <c r="A176" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1">
+        <v>20</v>
+      </c>
+      <c r="H176" s="4">
+        <v>45936</v>
+      </c>
+      <c r="I176" s="4">
+        <v>45936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="326">
   <si>
     <t>#</t>
   </si>
@@ -990,6 +990,21 @@
   </si>
   <si>
     <t>#union-find #graph #minimum-spanning-tree</t>
+  </si>
+  <si>
+    <t>Avoid Flood in The City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#greedy #binary-search </t>
+  </si>
+  <si>
+    <t>Successful Pairs of Spells and Potions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#binary-search #sorting </t>
+  </si>
+  <si>
+    <t>Minimize Max Distance to Gas Station</t>
   </si>
 </sst>
 </file>
@@ -2146,10 +2161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176:I176"/>
+      <selection activeCell="H179" sqref="H179:I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7237,6 +7252,93 @@
         <v>45936</v>
       </c>
     </row>
+    <row r="177" ht="34" spans="1:9">
+      <c r="A177" s="1">
+        <v>1488</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1">
+        <v>20</v>
+      </c>
+      <c r="H177" s="4">
+        <v>45937</v>
+      </c>
+      <c r="I177" s="4">
+        <v>45937</v>
+      </c>
+    </row>
+    <row r="178" ht="34" spans="1:9">
+      <c r="A178" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1">
+        <v>21</v>
+      </c>
+      <c r="H178" s="4">
+        <v>45938</v>
+      </c>
+      <c r="I178" s="4">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="179" ht="34" spans="1:9">
+      <c r="A179" s="1">
+        <v>774</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1">
+        <v>20</v>
+      </c>
+      <c r="H179" s="4">
+        <v>45938</v>
+      </c>
+      <c r="I179" s="4">
+        <v>45938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="331">
   <si>
     <t>#</t>
   </si>
@@ -1005,6 +1005,21 @@
   </si>
   <si>
     <t>Minimize Max Distance to Gas Station</t>
+  </si>
+  <si>
+    <t>Find the Minimum Amount of Time to Brew Potions</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>#math #string</t>
+  </si>
+  <si>
+    <t>Adjacent Increasing Subarrays Detection I</t>
+  </si>
+  <si>
+    <t>Adjacent Increasing Subarrays Detection II</t>
   </si>
 </sst>
 </file>
@@ -2161,10 +2176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179:I179"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7339,6 +7354,119 @@
         <v>45938</v>
       </c>
     </row>
+    <row r="180" ht="51" spans="1:9">
+      <c r="A180" s="1">
+        <v>3494</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1">
+        <v>35</v>
+      </c>
+      <c r="H180" s="4">
+        <v>45939</v>
+      </c>
+      <c r="I180" s="4">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="181" ht="17" spans="1:9">
+      <c r="A181" s="1">
+        <v>8</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1">
+        <v>20</v>
+      </c>
+      <c r="H181" s="4">
+        <v>45943</v>
+      </c>
+      <c r="I181" s="4">
+        <v>45943</v>
+      </c>
+    </row>
+    <row r="182" ht="34" spans="1:9">
+      <c r="A182" s="1">
+        <v>3349</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="4">
+        <v>45944</v>
+      </c>
+      <c r="I182" s="4">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="183" ht="34" spans="1:9">
+      <c r="A183" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1">
+        <v>5</v>
+      </c>
+      <c r="H183" s="4">
+        <v>45945</v>
+      </c>
+      <c r="I183" s="4">
+        <v>45945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="334">
   <si>
     <t>#</t>
   </si>
@@ -1020,6 +1020,15 @@
   </si>
   <si>
     <t>Adjacent Increasing Subarrays Detection II</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #binary-search #bit-minipulation </t>
   </si>
 </sst>
 </file>
@@ -2176,10 +2185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7467,6 +7476,64 @@
         <v>45945</v>
       </c>
     </row>
+    <row r="184" ht="17" spans="1:9">
+      <c r="A184" s="1">
+        <v>24</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1">
+        <v>10</v>
+      </c>
+      <c r="H184" s="4">
+        <v>45950</v>
+      </c>
+      <c r="I184" s="4">
+        <v>45950</v>
+      </c>
+    </row>
+    <row r="185" ht="51" spans="1:9">
+      <c r="A185" s="1">
+        <v>29</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" s="1">
+        <v>20</v>
+      </c>
+      <c r="H185" s="4">
+        <v>45950</v>
+      </c>
+      <c r="I185" s="4">
+        <v>45950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="340">
   <si>
     <t>#</t>
   </si>
@@ -1029,6 +1029,24 @@
   </si>
   <si>
     <t xml:space="preserve">#math #binary-search #bit-minipulation </t>
+  </si>
+  <si>
+    <t>Maximum Frequency of an Element After Performing Operations I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#binary-search  #array #sorting </t>
+  </si>
+  <si>
+    <t>Dot Product of Two Sparse Vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#set #hash-table #design </t>
+  </si>
+  <si>
+    <t>Maximum Frequency of an Element After Performing Operations II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#binary-search #sliding-window #sorting #prefix-sum #array </t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7534,6 +7552,93 @@
         <v>45950</v>
       </c>
     </row>
+    <row r="186" ht="51" spans="1:9">
+      <c r="A186" s="1">
+        <v>3346</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1">
+        <v>20</v>
+      </c>
+      <c r="H186" s="4">
+        <v>45951</v>
+      </c>
+      <c r="I186" s="4">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="187" ht="34" spans="1:9">
+      <c r="A187" s="1">
+        <v>1570</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1">
+        <v>17</v>
+      </c>
+      <c r="H187" s="4">
+        <v>45952</v>
+      </c>
+      <c r="I187" s="4">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="188" ht="68" spans="1:9">
+      <c r="A188" s="1">
+        <v>3347</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" s="1">
+        <v>55</v>
+      </c>
+      <c r="H188" s="4">
+        <v>45952</v>
+      </c>
+      <c r="I188" s="4">
+        <v>45952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="342">
   <si>
     <t>#</t>
   </si>
@@ -1047,6 +1047,12 @@
   </si>
   <si>
     <t xml:space="preserve">#binary-search #sliding-window #sorting #prefix-sum #array </t>
+  </si>
+  <si>
+    <t>Check If Digits Are Equal in String After Operations I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #simulation #string </t>
   </si>
 </sst>
 </file>
@@ -2203,10 +2209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7639,6 +7645,35 @@
         <v>45952</v>
       </c>
     </row>
+    <row r="189" ht="51" spans="1:9">
+      <c r="A189" s="1">
+        <v>3461</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189" s="1">
+        <v>5</v>
+      </c>
+      <c r="H189" s="4">
+        <v>45953</v>
+      </c>
+      <c r="I189" s="4">
+        <v>45953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="347">
   <si>
     <t>#</t>
   </si>
@@ -1053,6 +1053,21 @@
   </si>
   <si>
     <t xml:space="preserve">#math #simulation #string </t>
+  </si>
+  <si>
+    <t>Next Greater Numerically Balanced Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #emueration </t>
+  </si>
+  <si>
+    <t>Calculate Money in Leetcode Bank</t>
+  </si>
+  <si>
+    <t>Number of Laser Beams in a Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string  #greedy </t>
   </si>
 </sst>
 </file>
@@ -2209,10 +2224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7674,6 +7689,93 @@
         <v>45953</v>
       </c>
     </row>
+    <row r="190" ht="51" spans="1:9">
+      <c r="A190" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1">
+        <v>25</v>
+      </c>
+      <c r="H190" s="4">
+        <v>45954</v>
+      </c>
+      <c r="I190" s="4">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="191" ht="34" spans="1:9">
+      <c r="A191" s="1">
+        <v>1716</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="1">
+        <v>9</v>
+      </c>
+      <c r="H191" s="4">
+        <v>45955</v>
+      </c>
+      <c r="I191" s="4">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="192" ht="34" spans="1:9">
+      <c r="A192" s="1">
+        <v>2125</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <v>8</v>
+      </c>
+      <c r="H192" s="4">
+        <v>45957</v>
+      </c>
+      <c r="I192" s="4">
+        <v>45957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="351">
   <si>
     <t>#</t>
   </si>
@@ -1068,6 +1068,18 @@
   </si>
   <si>
     <t xml:space="preserve">#string  #greedy </t>
+  </si>
+  <si>
+    <t>Make Array Elements Equal to Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #prefix-sum #simulation </t>
+  </si>
+  <si>
+    <t>Smallest Number With All Set Bits</t>
+  </si>
+  <si>
+    <t>Minimum Subarrays in a Valid Split</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7776,6 +7788,93 @@
         <v>45957</v>
       </c>
     </row>
+    <row r="193" ht="34" spans="1:9">
+      <c r="A193" s="1">
+        <v>3354</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+      <c r="G193" s="1">
+        <v>7</v>
+      </c>
+      <c r="H193" s="4">
+        <v>45958</v>
+      </c>
+      <c r="I193" s="4">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="194" ht="34" spans="1:9">
+      <c r="A194" s="1">
+        <v>3370</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+      <c r="G194" s="1">
+        <v>4</v>
+      </c>
+      <c r="H194" s="4">
+        <v>45959</v>
+      </c>
+      <c r="I194" s="4">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="195" ht="51" spans="1:9">
+      <c r="A195" s="1">
+        <v>2464</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1">
+        <v>20</v>
+      </c>
+      <c r="H195" s="4">
+        <v>45959</v>
+      </c>
+      <c r="I195" s="4">
+        <v>45959</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="363">
   <si>
     <t>#</t>
   </si>
@@ -1080,6 +1080,42 @@
   </si>
   <si>
     <t>Minimum Subarrays in a Valid Split</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Minimum Number of Increments on Subarrays to Form a Target Array</t>
+  </si>
+  <si>
+    <t>The Two Sneaky Numbers of Digitville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #bit-minipulation #set </t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #greedy </t>
+  </si>
+  <si>
+    <t>Minimum Time to Make Rope Colorful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #array #greedy </t>
+  </si>
+  <si>
+    <t>Count Unguarded Cells in the Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #simulation </t>
+  </si>
+  <si>
+    <t>Delete Nodes From Linked List Present in Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#set #linked-list </t>
   </si>
 </sst>
 </file>
@@ -2236,10 +2272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7875,6 +7911,209 @@
         <v>45959</v>
       </c>
     </row>
+    <row r="196" ht="17" spans="1:9">
+      <c r="A196" s="1">
+        <v>38</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" s="1">
+        <v>20</v>
+      </c>
+      <c r="H196" s="4">
+        <v>45960</v>
+      </c>
+      <c r="I196" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="197" ht="51" spans="1:9">
+      <c r="A197" s="1">
+        <v>1526</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1">
+        <v>50</v>
+      </c>
+      <c r="H197" s="4">
+        <v>45960</v>
+      </c>
+      <c r="I197" s="4">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="198" ht="34" spans="1:9">
+      <c r="A198" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1">
+        <v>5</v>
+      </c>
+      <c r="H198" s="4">
+        <v>45961</v>
+      </c>
+      <c r="I198" s="4">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="199" ht="17" spans="1:9">
+      <c r="A199" s="1">
+        <v>45</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" s="1">
+        <v>20</v>
+      </c>
+      <c r="H199" s="4">
+        <v>45961</v>
+      </c>
+      <c r="I199" s="4">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="200" ht="34" spans="1:9">
+      <c r="A200" s="1">
+        <v>1578</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>20</v>
+      </c>
+      <c r="H200" s="4">
+        <v>44837</v>
+      </c>
+      <c r="I200" s="4">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="201" ht="34" spans="1:9">
+      <c r="A201" s="1">
+        <v>2257</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>20</v>
+      </c>
+      <c r="H201" s="4">
+        <v>44837</v>
+      </c>
+      <c r="I201" s="4">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="202" ht="51" spans="1:9">
+      <c r="A202" s="1">
+        <v>3217</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+      <c r="G202" s="1">
+        <v>8</v>
+      </c>
+      <c r="H202" s="4">
+        <v>44837</v>
+      </c>
+      <c r="I202" s="4">
+        <v>45964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="367">
   <si>
     <t>#</t>
   </si>
@@ -1116,6 +1116,18 @@
   </si>
   <si>
     <t xml:space="preserve">#set #linked-list </t>
+  </si>
+  <si>
+    <t>Find X-Sum of All K-Long Subarrays I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #sorting #array </t>
+  </si>
+  <si>
+    <t>Maximum Number of Ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matrix #greedy #sorting </t>
   </si>
 </sst>
 </file>
@@ -2272,10 +2284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204:I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8114,6 +8126,64 @@
         <v>45964</v>
       </c>
     </row>
+    <row r="203" ht="34" spans="1:9">
+      <c r="A203" s="1">
+        <v>3318</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1">
+        <v>18</v>
+      </c>
+      <c r="H203" s="4">
+        <v>44838</v>
+      </c>
+      <c r="I203" s="4">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="204" ht="34" spans="1:9">
+      <c r="A204" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+      <c r="G204" s="1">
+        <v>35</v>
+      </c>
+      <c r="H204" s="4">
+        <v>44838</v>
+      </c>
+      <c r="I204" s="4">
+        <v>45965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="376">
   <si>
     <t>#</t>
   </si>
@@ -1128,6 +1128,33 @@
   </si>
   <si>
     <t xml:space="preserve">#matrix #greedy #sorting </t>
+  </si>
+  <si>
+    <t>Find X-Sum of All K-Long Subarrays II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bst #hash-table #sorting #greedy </t>
+  </si>
+  <si>
+    <t>Power Grid Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#union-find #graph </t>
+  </si>
+  <si>
+    <t>Maximize the Minimum Powered City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#prefix-sum #sliding-window #greedy #binary-search #array </t>
+  </si>
+  <si>
+    <t>Minimum Operations to Convert All Elements to Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #stack #greedy </t>
+  </si>
+  <si>
+    <t>Count Operations to Obtain Zero</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204:I204"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="H209" sqref="H209:I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8091,7 +8118,7 @@
         <v>20</v>
       </c>
       <c r="H201" s="4">
-        <v>44837</v>
+        <v>45964</v>
       </c>
       <c r="I201" s="4">
         <v>45964</v>
@@ -8120,7 +8147,7 @@
         <v>8</v>
       </c>
       <c r="H202" s="4">
-        <v>44837</v>
+        <v>45964</v>
       </c>
       <c r="I202" s="4">
         <v>45964</v>
@@ -8149,7 +8176,7 @@
         <v>18</v>
       </c>
       <c r="H203" s="4">
-        <v>44838</v>
+        <v>45965</v>
       </c>
       <c r="I203" s="4">
         <v>45965</v>
@@ -8178,10 +8205,155 @@
         <v>35</v>
       </c>
       <c r="H204" s="4">
-        <v>44838</v>
+        <v>45965</v>
       </c>
       <c r="I204" s="4">
         <v>45965</v>
+      </c>
+    </row>
+    <row r="205" ht="34" spans="1:9">
+      <c r="A205" s="1">
+        <v>3321</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="1">
+        <v>40</v>
+      </c>
+      <c r="H205" s="4">
+        <v>45966</v>
+      </c>
+      <c r="I205" s="4">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="206" ht="34" spans="1:9">
+      <c r="A206" s="1">
+        <v>3607</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1</v>
+      </c>
+      <c r="G206" s="1">
+        <v>55</v>
+      </c>
+      <c r="H206" s="4">
+        <v>45967</v>
+      </c>
+      <c r="I206" s="4">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="207" ht="68" spans="1:9">
+      <c r="A207" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1">
+        <v>95</v>
+      </c>
+      <c r="H207" s="4">
+        <v>45968</v>
+      </c>
+      <c r="I207" s="4">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="208" ht="51" spans="1:9">
+      <c r="A208" s="1">
+        <v>3542</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>25</v>
+      </c>
+      <c r="H208" s="4">
+        <v>45971</v>
+      </c>
+      <c r="I208" s="4">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="209" ht="34" spans="1:9">
+      <c r="A209" s="1">
+        <v>2169</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+      <c r="G209" s="1">
+        <v>6</v>
+      </c>
+      <c r="H209" s="4">
+        <v>45971</v>
+      </c>
+      <c r="I209" s="4">
+        <v>45971</v>
       </c>
     </row>
   </sheetData>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="378">
   <si>
     <t>#</t>
   </si>
@@ -1155,6 +1155,12 @@
   </si>
   <si>
     <t>Count Operations to Obtain Zero</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table #design </t>
   </si>
 </sst>
 </file>
@@ -2311,10 +2317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="H209" sqref="H209:I209"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8356,6 +8362,35 @@
         <v>45971</v>
       </c>
     </row>
+    <row r="210" ht="34" spans="1:9">
+      <c r="A210" s="1">
+        <v>170</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1">
+        <v>15</v>
+      </c>
+      <c r="H210" s="4">
+        <v>45972</v>
+      </c>
+      <c r="I210" s="4">
+        <v>45972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="26860" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="385">
   <si>
     <t>#</t>
   </si>
@@ -1161,6 +1161,27 @@
   </si>
   <si>
     <t xml:space="preserve">#hash-table #design </t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#dynamic-programming #matrix </t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Make All Array Elements Equal to 1</t>
+  </si>
+  <si>
+    <t>#array #gcd #math</t>
+  </si>
+  <si>
+    <t>Maximum Number of Operations to Move Ones to the End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #greedy #counting </t>
+  </si>
+  <si>
+    <t>Missing Number</t>
   </si>
 </sst>
 </file>
@@ -2317,10 +2338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8391,6 +8412,122 @@
         <v>45972</v>
       </c>
     </row>
+    <row r="211" ht="51" spans="1:9">
+      <c r="A211" s="1">
+        <v>474</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1">
+        <v>35</v>
+      </c>
+      <c r="H211" s="4">
+        <v>44439</v>
+      </c>
+      <c r="I211" s="4">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="212" ht="68" spans="1:9">
+      <c r="A212" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1">
+        <v>25</v>
+      </c>
+      <c r="H212" s="4">
+        <v>45973</v>
+      </c>
+      <c r="I212" s="4">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="213" ht="51" spans="1:9">
+      <c r="A213" s="1">
+        <v>3228</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1">
+        <v>7</v>
+      </c>
+      <c r="H213" s="4">
+        <v>45974</v>
+      </c>
+      <c r="I213" s="4">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="214" ht="17" spans="1:9">
+      <c r="A214" s="1">
+        <v>268</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+      <c r="G214" s="1">
+        <v>2</v>
+      </c>
+      <c r="H214" s="4">
+        <v>45974</v>
+      </c>
+      <c r="I214" s="4">
+        <v>45974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14520"/>
+    <workbookView windowWidth="30860" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="393">
   <si>
     <t>#</t>
   </si>
@@ -1182,6 +1182,30 @@
   </si>
   <si>
     <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#union-find #bfs #graph #tree </t>
+  </si>
+  <si>
+    <t>Check If All 1's Are at Least Length K Places Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #counting </t>
+  </si>
+  <si>
+    <t>Number of Substrings With Only 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #counting </t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#two-pointers #sorting #binary-search </t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8528,6 +8552,122 @@
         <v>45974</v>
       </c>
     </row>
+    <row r="215" ht="34" spans="1:9">
+      <c r="A215" s="1">
+        <v>261</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1">
+        <v>25</v>
+      </c>
+      <c r="H215" s="4">
+        <v>45974</v>
+      </c>
+      <c r="I215" s="4">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="216" ht="51" spans="1:9">
+      <c r="A216" s="1">
+        <v>1437</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+      <c r="G216" s="1">
+        <v>20</v>
+      </c>
+      <c r="H216" s="4">
+        <v>45978</v>
+      </c>
+      <c r="I216" s="4">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="217" ht="34" spans="1:9">
+      <c r="A217" s="1">
+        <v>1513</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>5</v>
+      </c>
+      <c r="H217" s="4">
+        <v>45978</v>
+      </c>
+      <c r="I217" s="4">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="218" ht="51" spans="1:9">
+      <c r="A218" s="1">
+        <v>259</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
+      <c r="G218" s="1">
+        <v>25</v>
+      </c>
+      <c r="H218" s="4">
+        <v>45979</v>
+      </c>
+      <c r="I218" s="4">
+        <v>45979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30860" windowHeight="14520"/>
+    <workbookView windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="398">
   <si>
     <t>#</t>
   </si>
@@ -1206,6 +1206,21 @@
   </si>
   <si>
     <t xml:space="preserve">#two-pointers #sorting #binary-search </t>
+  </si>
+  <si>
+    <t>1-bit and 2-bit Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #math </t>
+  </si>
+  <si>
+    <t>Keep Multiplying Found Values by Two</t>
+  </si>
+  <si>
+    <t>Set Intersection Size At Least Two</t>
+  </si>
+  <si>
+    <t>#array #intervals</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="I219" sqref="I219"/>
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8668,6 +8683,93 @@
         <v>45979</v>
       </c>
     </row>
+    <row r="219" ht="34" spans="1:9">
+      <c r="A219" s="1">
+        <v>717</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1">
+        <v>25</v>
+      </c>
+      <c r="H219" s="4">
+        <v>45980</v>
+      </c>
+      <c r="I219" s="4">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="220" ht="34" spans="1:9">
+      <c r="A220" s="1">
+        <v>2154</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1">
+        <v>5</v>
+      </c>
+      <c r="H220" s="4">
+        <v>45980</v>
+      </c>
+      <c r="I220" s="4">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="221" ht="34" spans="1:9">
+      <c r="A221" s="1">
+        <v>757</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1">
+        <v>55</v>
+      </c>
+      <c r="H221" s="4">
+        <v>45981</v>
+      </c>
+      <c r="I221" s="4">
+        <v>45981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640"/>
+    <workbookView windowWidth="29100" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="400">
   <si>
     <t>#</t>
   </si>
@@ -1221,6 +1221,12 @@
   </si>
   <si>
     <t>#array #intervals</t>
+  </si>
+  <si>
+    <t>Unique Length-3 Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#palindrom #string #set </t>
   </si>
 </sst>
 </file>
@@ -2377,10 +2383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8770,6 +8776,35 @@
         <v>45981</v>
       </c>
     </row>
+    <row r="222" ht="51" spans="1:9">
+      <c r="A222" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1</v>
+      </c>
+      <c r="G222" s="1">
+        <v>25</v>
+      </c>
+      <c r="H222" s="4">
+        <v>45982</v>
+      </c>
+      <c r="I222" s="4">
+        <v>45982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="406">
   <si>
     <t>#</t>
   </si>
@@ -1227,6 +1227,24 @@
   </si>
   <si>
     <t xml:space="preserve">#palindrom #string #set </t>
+  </si>
+  <si>
+    <t>Find Minimum Operations to Make All Elements Divisible by Three</t>
+  </si>
+  <si>
+    <t>Greatest Sum Divisible by Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #greedy #dynamic-programming #sorting </t>
+  </si>
+  <si>
+    <t>Binary Prefix Divisible By 5</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bfs #dfs #deque #queue </t>
   </si>
 </sst>
 </file>
@@ -2383,10 +2401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="J222" sqref="J222"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="J226" sqref="J226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8805,6 +8823,122 @@
         <v>45982</v>
       </c>
     </row>
+    <row r="223" ht="68" spans="1:9">
+      <c r="A223" s="1">
+        <v>3190</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="1">
+        <v>2</v>
+      </c>
+      <c r="H223" s="4">
+        <v>45983</v>
+      </c>
+      <c r="I223" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="224" ht="68" spans="1:9">
+      <c r="A224" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1</v>
+      </c>
+      <c r="G224" s="1">
+        <v>55</v>
+      </c>
+      <c r="H224" s="4">
+        <v>45984</v>
+      </c>
+      <c r="I224" s="4">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="225" ht="34" spans="1:9">
+      <c r="A225" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+      <c r="G225" s="1">
+        <v>5</v>
+      </c>
+      <c r="H225" s="4">
+        <v>45985</v>
+      </c>
+      <c r="I225" s="4">
+        <v>45985</v>
+      </c>
+    </row>
+    <row r="226" ht="34" spans="1:9">
+      <c r="A226" s="1">
+        <v>364</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+      <c r="G226" s="1">
+        <v>24</v>
+      </c>
+      <c r="H226" s="4">
+        <v>45986</v>
+      </c>
+      <c r="I226" s="4">
+        <v>45986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="407">
   <si>
     <t>#</t>
   </si>
@@ -1245,6 +1245,9 @@
   </si>
   <si>
     <t xml:space="preserve">#bfs #dfs #deque #queue </t>
+  </si>
+  <si>
+    <t>Smallest Integer Divisible by K</t>
   </si>
 </sst>
 </file>
@@ -2401,10 +2404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="J226" sqref="J226"/>
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8939,6 +8942,35 @@
         <v>45986</v>
       </c>
     </row>
+    <row r="227" ht="34" spans="1:9">
+      <c r="A227" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>2</v>
+      </c>
+      <c r="G227" s="1">
+        <v>25</v>
+      </c>
+      <c r="H227" s="4">
+        <v>44559</v>
+      </c>
+      <c r="I227" s="4">
+        <v>45986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14620"/>
+    <workbookView windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="409">
   <si>
     <t>#</t>
   </si>
@@ -1248,6 +1248,12 @@
   </si>
   <si>
     <t>Smallest Integer Divisible by K</t>
+  </si>
+  <si>
+    <t>Paths in Matrix Whose Sum Is Divisible by K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#greedy #matrix #dynamic-programming  </t>
   </si>
 </sst>
 </file>
@@ -2404,10 +2410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+      <selection activeCell="J226" sqref="J226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8971,6 +8977,35 @@
         <v>45986</v>
       </c>
     </row>
+    <row r="228" ht="51" spans="1:9">
+      <c r="A228" s="1">
+        <v>2435</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1">
+        <v>55</v>
+      </c>
+      <c r="H228" s="4">
+        <v>45987</v>
+      </c>
+      <c r="I228" s="4">
+        <v>45987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="411">
   <si>
     <t>#</t>
   </si>
@@ -1254,6 +1254,12 @@
   </si>
   <si>
     <t xml:space="preserve">#greedy #matrix #dynamic-programming  </t>
+  </si>
+  <si>
+    <t>Maximum Subarray Sum With Length Divisible by K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#prefix-sum #array #divide </t>
   </si>
 </sst>
 </file>
@@ -2410,10 +2416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="J226" sqref="J226"/>
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9006,6 +9012,35 @@
         <v>45987</v>
       </c>
     </row>
+    <row r="229" ht="51" spans="1:9">
+      <c r="A229" s="1">
+        <v>3381</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1</v>
+      </c>
+      <c r="G229" s="1">
+        <v>35</v>
+      </c>
+      <c r="H229" s="4">
+        <v>45988</v>
+      </c>
+      <c r="I229" s="4">
+        <v>45988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="413">
   <si>
     <t>#</t>
   </si>
@@ -1260,6 +1260,12 @@
   </si>
   <si>
     <t xml:space="preserve">#prefix-sum #array #divide </t>
+  </si>
+  <si>
+    <t>Maximum Number of K-Divisible Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#tree #graph #dfs #bfs #set </t>
   </si>
 </sst>
 </file>
@@ -2416,10 +2422,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9041,6 +9047,35 @@
         <v>45988</v>
       </c>
     </row>
+    <row r="230" ht="34" spans="1:9">
+      <c r="A230" s="1">
+        <v>2872</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1">
+        <v>30</v>
+      </c>
+      <c r="H230" s="4">
+        <v>45989</v>
+      </c>
+      <c r="I230" s="4">
+        <v>45989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="421">
   <si>
     <t>#</t>
   </si>
@@ -1266,6 +1266,30 @@
   </si>
   <si>
     <t xml:space="preserve">#tree #graph #dfs #bfs #set </t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Make Sum Divisible by P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #prefix-sum #divide </t>
+  </si>
+  <si>
+    <t>Maximum Running Time of N Computers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #binary-search #greedy </t>
+  </si>
+  <si>
+    <t>Count Number of Trapezoids I</t>
+  </si>
+  <si>
+    <t>Two Sum BSTs</t>
+  </si>
+  <si>
+    <t>#binary-tree #bst #bfs #dfs #morris</t>
   </si>
 </sst>
 </file>
@@ -2422,10 +2446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+      <selection activeCell="H235" sqref="H235:I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9076,6 +9100,148 @@
         <v>45989</v>
       </c>
     </row>
+    <row r="231" ht="17" spans="1:9">
+      <c r="A231" s="1">
+        <v>370</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1">
+        <v>30</v>
+      </c>
+      <c r="H231" s="4">
+        <v>45990</v>
+      </c>
+      <c r="I231" s="4">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="232" ht="34" spans="1:9">
+      <c r="A232" s="1">
+        <v>1590</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1">
+        <v>25</v>
+      </c>
+      <c r="H232" s="4">
+        <v>45991</v>
+      </c>
+      <c r="I232" s="4">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="233" ht="34" spans="1:9">
+      <c r="A233" s="1">
+        <v>2141</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H233" s="4">
+        <v>45992</v>
+      </c>
+      <c r="I233" s="4">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="234" ht="34" spans="1:9">
+      <c r="A234" s="1">
+        <v>3623</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1">
+        <v>45</v>
+      </c>
+      <c r="H234" s="4">
+        <v>45993</v>
+      </c>
+      <c r="I234" s="4">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="235" ht="34" spans="1:9">
+      <c r="A235" s="1">
+        <v>1214</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+      <c r="G235" s="1">
+        <v>16</v>
+      </c>
+      <c r="H235" s="4">
+        <v>45993</v>
+      </c>
+      <c r="I235" s="4">
+        <v>45993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="429">
   <si>
     <t>#</t>
   </si>
@@ -1290,6 +1290,30 @@
   </si>
   <si>
     <t>#binary-tree #bst #bfs #dfs #morris</t>
+  </si>
+  <si>
+    <t>Count Number of Trapezoids II</t>
+  </si>
+  <si>
+    <t>55??</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#hash-table </t>
+  </si>
+  <si>
+    <t>Count Collisions on a Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#string #array #simulation </t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>75??</t>
   </si>
 </sst>
 </file>
@@ -2446,10 +2470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="H235" sqref="H235:I235"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239:I239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9242,6 +9266,119 @@
         <v>45993</v>
       </c>
     </row>
+    <row r="236" ht="34" spans="1:9">
+      <c r="A236" s="1">
+        <v>3625</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H236" s="4">
+        <v>45994</v>
+      </c>
+      <c r="I236" s="4">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="237" ht="17" spans="1:9">
+      <c r="A237" s="1">
+        <v>242</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+      <c r="G237" s="1">
+        <v>5</v>
+      </c>
+      <c r="H237" s="4">
+        <v>45994</v>
+      </c>
+      <c r="I237" s="4">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="238" ht="34" spans="1:9">
+      <c r="A238" s="1">
+        <v>2211</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1</v>
+      </c>
+      <c r="G238" s="1">
+        <v>45</v>
+      </c>
+      <c r="H238" s="4">
+        <v>45995</v>
+      </c>
+      <c r="I238" s="4">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="239" ht="34" spans="1:9">
+      <c r="A239" s="1">
+        <v>424</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H239" s="4">
+        <v>45995</v>
+      </c>
+      <c r="I239" s="4">
+        <v>45995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="437">
   <si>
     <t>#</t>
   </si>
@@ -1314,6 +1314,30 @@
   </si>
   <si>
     <t>75??</t>
+  </si>
+  <si>
+    <t>Count Partitions with Even Sum Difference</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #dynamic-programming  </t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Count Partitions With Max-Min Difference at Most K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#sliding-window #dynamic-programming </t>
+  </si>
+  <si>
+    <t>Count Odd Numbers in an Interval Range</t>
+  </si>
+  <si>
+    <t>Count Square Sum Triples</t>
   </si>
 </sst>
 </file>
@@ -2470,10 +2494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239:I239"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9379,6 +9403,180 @@
         <v>45995</v>
       </c>
     </row>
+    <row r="240" ht="34" spans="1:9">
+      <c r="A240" s="1">
+        <v>3432</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G240" s="1">
+        <v>5</v>
+      </c>
+      <c r="H240" s="4">
+        <v>45996</v>
+      </c>
+      <c r="I240" s="4">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="241" ht="34" spans="1:9">
+      <c r="A241" s="1">
+        <v>198</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G241" s="1">
+        <v>8</v>
+      </c>
+      <c r="H241" s="4">
+        <v>45996</v>
+      </c>
+      <c r="I241" s="4">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="242" ht="34" spans="1:9">
+      <c r="A242" s="1">
+        <v>152</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+      <c r="G242" s="1">
+        <v>50</v>
+      </c>
+      <c r="H242" s="4">
+        <v>45996</v>
+      </c>
+      <c r="I242" s="4">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="243" ht="51" spans="1:9">
+      <c r="A243" s="1">
+        <v>3578</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+      <c r="G243" s="1">
+        <v>40</v>
+      </c>
+      <c r="H243" s="4">
+        <v>45997</v>
+      </c>
+      <c r="I243" s="4">
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="244" ht="34" spans="1:9">
+      <c r="A244" s="1">
+        <v>1523</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+      <c r="G244" s="1">
+        <v>3</v>
+      </c>
+      <c r="H244" s="4">
+        <v>45998</v>
+      </c>
+      <c r="I244" s="4">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="245" ht="34" spans="1:9">
+      <c r="A245" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+      <c r="G245" s="1">
+        <v>3</v>
+      </c>
+      <c r="H245" s="4">
+        <v>45999</v>
+      </c>
+      <c r="I245" s="4">
+        <v>45999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
+++ b/Obsidian Vault/刷题笔记 - 记录/刷题记录表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="442">
   <si>
     <t>#</t>
   </si>
@@ -1338,6 +1338,21 @@
   </si>
   <si>
     <t>Count Square Sum Triples</t>
+  </si>
+  <si>
+    <t>Count Special Triplets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#array #hash-table </t>
+  </si>
+  <si>
+    <t>Count the Number of Computer Unlocking Permutations</t>
+  </si>
+  <si>
+    <t>Minimize Product Sum of Two Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#math #array </t>
   </si>
 </sst>
 </file>
@@ -2494,10 +2509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+      <selection activeCell="H249" sqref="H249:I249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -9577,6 +9592,101 @@
         <v>45999</v>
       </c>
     </row>
+    <row r="246" ht="17" spans="1:9">
+      <c r="A246" s="1">
+        <v>3583</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1</v>
+      </c>
+      <c r="G246" s="1">
+        <v>30</v>
+      </c>
+      <c r="H246" s="4">
+        <v>46000</v>
+      </c>
+      <c r="I246" s="4">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="247" ht="51" spans="1:9">
+      <c r="A247" s="1">
+        <v>3577</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1">
+        <v>10</v>
+      </c>
+      <c r="H247" s="4">
+        <v>46001</v>
+      </c>
+      <c r="I247" s="4">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="248" ht="34" spans="1:9">
+      <c r="A248" s="1">
+        <v>1874</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+      <c r="G248" s="1">
+        <v>4</v>
+      </c>
+      <c r="H248" s="4">
+        <v>46001</v>
+      </c>
+      <c r="I248" s="4">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="249" spans="8:9">
+      <c r="H249" s="4">
+        <v>46001</v>
+      </c>
+      <c r="I249" s="4">
+        <v>46001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
